--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_22_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1539190.976262289</v>
+        <v>1468340.708876038</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6343443.958132688</v>
+        <v>6343443.958132687</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14861719.45172266</v>
+        <v>14861719.45172267</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6233987.421281074</v>
+        <v>6233987.421281075</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>136.1249715966861</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>67.02426593610282</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.1007056605834</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="T11" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>136.1249715966861</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>68.20163556300614</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="W12" t="n">
-        <v>67.92333603368006</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>103.4661406552409</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>154.5469704776183</v>
+        <v>40.95746178635421</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8419322560154</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>56.73754424870933</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.00578558162508</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>136.1249715966861</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>136.1249715966862</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="X14" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>136.1249715966862</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>68.20163556300614</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>67.92333603367996</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>52.00578558162508</v>
       </c>
       <c r="R16" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="S16" t="n">
-        <v>143.4986466823473</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>4.571764463900947</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.5469704776183</v>
+        <v>67.02426593610261</v>
       </c>
       <c r="C17" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="D17" t="n">
-        <v>136.1249715966862</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="F17" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>69.1007056605834</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>68.20163556300614</v>
       </c>
       <c r="S18" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="T18" t="n">
-        <v>154.5469704776183</v>
+        <v>67.92333603367996</v>
       </c>
       <c r="U18" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>67.92333603368006</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="W19" t="n">
-        <v>154.5469704776183</v>
+        <v>56.57755004552591</v>
       </c>
       <c r="X19" t="n">
-        <v>40.95746178635405</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.5469704776183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.1007056605834</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.5469704776184</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>154.5469704776184</v>
+        <v>136.1249715966861</v>
       </c>
       <c r="U20" t="n">
         <v>154.5469704776184</v>
       </c>
       <c r="V20" t="n">
-        <v>67.02426593610281</v>
+        <v>154.5469704776184</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>154.5469704776184</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,11 +2159,11 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>154.5469704776184</v>
+      </c>
+      <c r="C21" t="n">
         <v>151.993558856253</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>154.5469704776184</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>154.5469704776184</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>154.5469704776184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>154.5469704776184</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,61 +2247,61 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>56.57755004552558</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>40.95746178635385</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>154.5469704776184</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>154.5469704776184</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>154.5469704776184</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>175.3725294260641</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>166.0269253345505</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.8137280099909</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>69.1007056605834</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>175.3725294260641</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>85.36741825789386</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>175.3725294260641</v>
       </c>
       <c r="V23" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>10.47661749650223</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>175.3725294260641</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.6732466283748</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>68.20163556300614</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6907892196643</v>
       </c>
       <c r="T24" t="n">
-        <v>89.94822856187088</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>175.3725294260641</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.42099771671227</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>163.0440533182995</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8533143670807</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>154.4681239184773</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="T26" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>175.3725294260641</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="V26" t="n">
-        <v>175.3725294260641</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="W26" t="n">
-        <v>154.4681239184773</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.6732466283748</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>26.88892518250272</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>68.20163556300614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.3725294260641</v>
+        <v>106.3605362478715</v>
       </c>
     </row>
     <row r="28">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.8025844980973</v>
       </c>
       <c r="H28" t="n">
-        <v>143.5617157425121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>137.8419322560154</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>56.73754424870933</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>52.00578558162508</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>61.59527791880507</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>154.4681239184773</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>69.1007056605834</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>85.36741825789386</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="V29" t="n">
-        <v>175.3725294260641</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>26.5400492258526</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>147.6732466283748</v>
       </c>
       <c r="H30" t="n">
-        <v>115.3884632811818</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>70.47674765504547</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="W30" t="n">
-        <v>16.39624367233956</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.17717315485584</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>153.8533143670807</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>175.3725294260641</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>175.3725294260641</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>154.4681239184773</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>69.1007056605834</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>175.3725294260641</v>
       </c>
       <c r="X32" t="n">
+        <v>85.36741825789375</v>
+      </c>
+      <c r="Y32" t="n">
         <v>175.3725294260641</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>175.3725294260641</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>70.47674765504547</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>68.20163556300614</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6907892196643</v>
@@ -3164,16 +3164,16 @@
         <v>175.3725294260641</v>
       </c>
       <c r="U33" t="n">
-        <v>19.47148090682541</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>158.149864124877</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>175.3725294260641</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>56.19276529044019</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8025844980973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>162.7686628211726</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>175.3725294260641</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>136.1249715966861</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>136.124971596686</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="T35" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>136.1249715966861</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>68.20163556300614</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>154.5469704776182</v>
       </c>
       <c r="T36" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>154.5469704776182</v>
       </c>
       <c r="V36" t="n">
-        <v>67.92333603367996</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>154.5469704776182</v>
@@ -3489,10 +3489,10 @@
         <v>154.5469704776182</v>
       </c>
       <c r="X37" t="n">
-        <v>40.95746178635446</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>40.95746178635444</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>154.5469704776182</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>69.1007056605834</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>67.02426593610267</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>154.5469704776182</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>67.02426593610272</v>
-      </c>
-      <c r="X38" t="n">
-        <v>154.5469704776182</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,64 +3593,64 @@
         <v>154.5469704776182</v>
       </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>147.6732466283748</v>
+      </c>
+      <c r="H39" t="n">
+        <v>115.3884632811818</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>27.61023216474779</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>154.5469704776182</v>
-      </c>
-      <c r="G39" t="n">
-        <v>136.1249715966861</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.95746178635446</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>40.95746178635443</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>154.5469704776182</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>136.124971596686</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>69.1007056605834</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>67.02426593610278</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>136.1249715966861</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>115.3884632811818</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>154.5469704776182</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="V42" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>154.5469704776182</v>
+        <v>20.73650831550441</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>40.95746178635444</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.95746178635405</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="V43" t="n">
-        <v>154.5469704776182</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="W43" t="n">
-        <v>154.5469704776182</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>69.1007056605834</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="U44" t="n">
+        <v>67.02426593610272</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>154.5469704776182</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
-        <v>136.1249715966861</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>154.5469704776182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,61 +4055,61 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
         <v>154.5469704776182</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>104.8067311380771</v>
-      </c>
-      <c r="H45" t="n">
-        <v>115.3884632811818</v>
-      </c>
-      <c r="I45" t="n">
-        <v>70.47674765504547</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>154.5469704776182</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>136.1249715966861</v>
       </c>
     </row>
     <row r="46">
@@ -4140,55 +4140,55 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>69.44837931091921</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>137.8419322560154</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>154.5469704776182</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.66250000795726</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.06503636154565</v>
+        <v>149.8637289479934</v>
       </c>
       <c r="C11" t="n">
-        <v>80.06503636154565</v>
+        <v>149.8637289479934</v>
       </c>
       <c r="D11" t="n">
-        <v>80.06503636154565</v>
+        <v>149.8637289479934</v>
       </c>
       <c r="E11" t="n">
-        <v>80.06503636154565</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="F11" t="n">
-        <v>80.06503636154565</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="G11" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H11" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I11" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J11" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K11" t="n">
-        <v>49.91888337054249</v>
+        <v>49.91888337054229</v>
       </c>
       <c r="L11" t="n">
-        <v>141.5294871595665</v>
+        <v>141.5294871595662</v>
       </c>
       <c r="M11" t="n">
-        <v>282.100649030268</v>
+        <v>282.1006490302678</v>
       </c>
       <c r="N11" t="n">
-        <v>430.5752454848385</v>
+        <v>430.5752454848383</v>
       </c>
       <c r="O11" t="n">
-        <v>554.5065779511303</v>
+        <v>554.5065779511301</v>
       </c>
       <c r="P11" t="n">
-        <v>618.1878819104733</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="Q11" t="n">
-        <v>618.1878819104733</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="R11" t="n">
-        <v>548.3891893240254</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="S11" t="n">
-        <v>392.2811383365322</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="T11" t="n">
-        <v>236.1730873490389</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="U11" t="n">
-        <v>80.06503636154565</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="V11" t="n">
-        <v>80.06503636154565</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="W11" t="n">
-        <v>80.06503636154565</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="X11" t="n">
-        <v>80.06503636154565</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.06503636154565</v>
+        <v>149.8637289479934</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.36375763820947</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="C12" t="n">
-        <v>12.36375763820947</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="D12" t="n">
-        <v>12.36375763820947</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="E12" t="n">
-        <v>12.36375763820947</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="F12" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="G12" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H12" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I12" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J12" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K12" t="n">
-        <v>51.93813431107787</v>
+        <v>51.93813431107781</v>
       </c>
       <c r="L12" t="n">
-        <v>161.6642677384542</v>
+        <v>161.664267738454</v>
       </c>
       <c r="M12" t="n">
-        <v>313.324869171008</v>
+        <v>251.9403303897394</v>
       </c>
       <c r="N12" t="n">
-        <v>404.9418311625818</v>
+        <v>404.9418311625815</v>
       </c>
       <c r="O12" t="n">
-        <v>536.3264683278913</v>
+        <v>536.326468327891</v>
       </c>
       <c r="P12" t="n">
-        <v>618.1878819104733</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="Q12" t="n">
-        <v>618.1878819104733</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="R12" t="n">
-        <v>549.2973409377398</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="S12" t="n">
-        <v>393.1892899502466</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="T12" t="n">
-        <v>237.0812389627533</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="U12" t="n">
-        <v>80.97318797526003</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="V12" t="n">
-        <v>80.97318797526003</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="W12" t="n">
-        <v>12.36375763820947</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="X12" t="n">
-        <v>12.36375763820947</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.36375763820947</v>
+        <v>462.0798309229797</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>469.527987575163</v>
+        <v>209.8429821472726</v>
       </c>
       <c r="C13" t="n">
-        <v>469.527987575163</v>
+        <v>53.73493115977936</v>
       </c>
       <c r="D13" t="n">
-        <v>469.527987575163</v>
+        <v>53.73493115977936</v>
       </c>
       <c r="E13" t="n">
-        <v>469.527987575163</v>
+        <v>53.73493115977936</v>
       </c>
       <c r="F13" t="n">
-        <v>469.527987575163</v>
+        <v>53.73493115977936</v>
       </c>
       <c r="G13" t="n">
-        <v>365.016734388051</v>
+        <v>53.73493115977936</v>
       </c>
       <c r="H13" t="n">
-        <v>208.9086834005577</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I13" t="n">
-        <v>69.67440839448152</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J13" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K13" t="n">
-        <v>49.31394045033558</v>
+        <v>49.31394045033554</v>
       </c>
       <c r="L13" t="n">
         <v>149.6846988555509</v>
       </c>
       <c r="M13" t="n">
-        <v>264.1074802244291</v>
+        <v>264.107480224429</v>
       </c>
       <c r="N13" t="n">
-        <v>383.8256798594098</v>
+        <v>383.8256798594097</v>
       </c>
       <c r="O13" t="n">
-        <v>472.4071678201572</v>
+        <v>472.407167820157</v>
       </c>
       <c r="P13" t="n">
-        <v>522.059084122259</v>
+        <v>522.0590841222589</v>
       </c>
       <c r="Q13" t="n">
-        <v>469.527987575163</v>
+        <v>522.0590841222589</v>
       </c>
       <c r="R13" t="n">
-        <v>469.527987575163</v>
+        <v>522.0590841222589</v>
       </c>
       <c r="S13" t="n">
-        <v>469.527987575163</v>
+        <v>365.9510331347657</v>
       </c>
       <c r="T13" t="n">
-        <v>469.527987575163</v>
+        <v>365.9510331347657</v>
       </c>
       <c r="U13" t="n">
-        <v>469.527987575163</v>
+        <v>365.9510331347657</v>
       </c>
       <c r="V13" t="n">
-        <v>469.527987575163</v>
+        <v>365.9510331347657</v>
       </c>
       <c r="W13" t="n">
-        <v>469.527987575163</v>
+        <v>209.8429821472726</v>
       </c>
       <c r="X13" t="n">
-        <v>469.527987575163</v>
+        <v>209.8429821472726</v>
       </c>
       <c r="Y13" t="n">
-        <v>469.527987575163</v>
+        <v>209.8429821472726</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.36375763820947</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="C14" t="n">
-        <v>12.36375763820947</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="D14" t="n">
-        <v>12.36375763820947</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="E14" t="n">
-        <v>12.36375763820947</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="F14" t="n">
-        <v>12.36375763820947</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="G14" t="n">
-        <v>12.36375763820947</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="H14" t="n">
-        <v>12.36375763820947</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="I14" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J14" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K14" t="n">
-        <v>49.91888337054249</v>
+        <v>49.91888337054218</v>
       </c>
       <c r="L14" t="n">
-        <v>141.5294871595665</v>
+        <v>141.529487159566</v>
       </c>
       <c r="M14" t="n">
-        <v>282.1006490302681</v>
+        <v>282.1006490302675</v>
       </c>
       <c r="N14" t="n">
-        <v>430.5752454848387</v>
+        <v>430.5752454848381</v>
       </c>
       <c r="O14" t="n">
-        <v>554.5065779511305</v>
+        <v>554.5065779511299</v>
       </c>
       <c r="P14" t="n">
-        <v>618.1878819104734</v>
+        <v>618.1878819104728</v>
       </c>
       <c r="Q14" t="n">
-        <v>618.1878819104734</v>
+        <v>618.1878819104728</v>
       </c>
       <c r="R14" t="n">
-        <v>618.1878819104734</v>
+        <v>618.1878819104728</v>
       </c>
       <c r="S14" t="n">
-        <v>618.1878819104734</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="T14" t="n">
-        <v>618.1878819104734</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="U14" t="n">
-        <v>480.6879106006893</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="V14" t="n">
-        <v>324.579859613196</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="W14" t="n">
-        <v>168.4718086257028</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="X14" t="n">
-        <v>12.36375763820947</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.36375763820947</v>
+        <v>305.9717799354866</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>462.0798309229801</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="C15" t="n">
-        <v>462.0798309229801</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="D15" t="n">
-        <v>324.579859613196</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="E15" t="n">
-        <v>168.4718086257028</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="F15" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="G15" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H15" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I15" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J15" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K15" t="n">
         <v>51.93813431107787</v>
@@ -5369,40 +5369,40 @@
         <v>313.324869171008</v>
       </c>
       <c r="N15" t="n">
-        <v>404.9418311625819</v>
+        <v>466.32636994385</v>
       </c>
       <c r="O15" t="n">
-        <v>536.3264683278915</v>
+        <v>597.7110071091596</v>
       </c>
       <c r="P15" t="n">
-        <v>618.1878819104734</v>
+        <v>618.1878819104728</v>
       </c>
       <c r="Q15" t="n">
-        <v>618.1878819104734</v>
+        <v>618.1878819104728</v>
       </c>
       <c r="R15" t="n">
-        <v>618.1878819104734</v>
+        <v>549.2973409377394</v>
       </c>
       <c r="S15" t="n">
-        <v>618.1878819104734</v>
+        <v>393.1892899502462</v>
       </c>
       <c r="T15" t="n">
-        <v>618.1878819104734</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="U15" t="n">
-        <v>618.1878819104734</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="V15" t="n">
-        <v>618.1878819104734</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="W15" t="n">
-        <v>618.1878819104734</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="X15" t="n">
-        <v>462.0798309229801</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="Y15" t="n">
-        <v>462.0798309229801</v>
+        <v>12.36375763820946</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="C16" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="D16" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="E16" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="F16" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="G16" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H16" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I16" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J16" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K16" t="n">
-        <v>49.31394045033558</v>
+        <v>49.31394045033557</v>
       </c>
       <c r="L16" t="n">
         <v>149.6846988555509</v>
@@ -5460,28 +5460,28 @@
         <v>469.527987575163</v>
       </c>
       <c r="R16" t="n">
-        <v>313.4199365876697</v>
+        <v>313.4199365876699</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4718086257028</v>
+        <v>313.4199365876699</v>
       </c>
       <c r="T16" t="n">
-        <v>12.36375763820947</v>
+        <v>157.3118856001767</v>
       </c>
       <c r="U16" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="V16" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="W16" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="X16" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.07983092298</v>
+        <v>480.687910600689</v>
       </c>
       <c r="C17" t="n">
-        <v>305.9717799354868</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="D17" t="n">
-        <v>168.4718086257027</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="E17" t="n">
-        <v>168.4718086257027</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="F17" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="G17" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H17" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I17" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J17" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K17" t="n">
-        <v>49.91888337054246</v>
+        <v>49.91888337054229</v>
       </c>
       <c r="L17" t="n">
-        <v>141.5294871595664</v>
+        <v>141.5294871595663</v>
       </c>
       <c r="M17" t="n">
-        <v>282.100649030268</v>
+        <v>282.1006490302677</v>
       </c>
       <c r="N17" t="n">
-        <v>430.5752454848385</v>
+        <v>430.5752454848382</v>
       </c>
       <c r="O17" t="n">
-        <v>554.5065779511303</v>
+        <v>554.50657795113</v>
       </c>
       <c r="P17" t="n">
-        <v>618.1878819104733</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="Q17" t="n">
-        <v>618.1878819104733</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="R17" t="n">
-        <v>618.1878819104733</v>
+        <v>548.389189324025</v>
       </c>
       <c r="S17" t="n">
-        <v>618.1878819104733</v>
+        <v>548.389189324025</v>
       </c>
       <c r="T17" t="n">
-        <v>618.1878819104733</v>
+        <v>548.389189324025</v>
       </c>
       <c r="U17" t="n">
-        <v>618.1878819104733</v>
+        <v>548.389189324025</v>
       </c>
       <c r="V17" t="n">
-        <v>618.1878819104733</v>
+        <v>548.389189324025</v>
       </c>
       <c r="W17" t="n">
-        <v>618.1878819104733</v>
+        <v>548.389189324025</v>
       </c>
       <c r="X17" t="n">
-        <v>618.1878819104733</v>
+        <v>548.389189324025</v>
       </c>
       <c r="Y17" t="n">
-        <v>618.1878819104733</v>
+        <v>548.389189324025</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12.36375763820947</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="C18" t="n">
-        <v>12.36375763820947</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="D18" t="n">
-        <v>12.36375763820947</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="E18" t="n">
-        <v>12.36375763820947</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="F18" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="G18" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H18" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I18" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J18" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K18" t="n">
         <v>51.93813431107787</v>
@@ -5603,43 +5603,43 @@
         <v>161.6642677384542</v>
       </c>
       <c r="M18" t="n">
-        <v>251.9403303897397</v>
+        <v>313.324869171008</v>
       </c>
       <c r="N18" t="n">
-        <v>404.9418311625818</v>
+        <v>404.9418311625815</v>
       </c>
       <c r="O18" t="n">
-        <v>536.3264683278913</v>
+        <v>536.326468327891</v>
       </c>
       <c r="P18" t="n">
-        <v>618.1878819104733</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="Q18" t="n">
-        <v>618.1878819104733</v>
+        <v>618.1878819104729</v>
       </c>
       <c r="R18" t="n">
-        <v>549.2973409377398</v>
+        <v>549.2973409377395</v>
       </c>
       <c r="S18" t="n">
-        <v>393.1892899502466</v>
+        <v>393.1892899502463</v>
       </c>
       <c r="T18" t="n">
-        <v>237.0812389627533</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="U18" t="n">
-        <v>80.97318797526003</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="V18" t="n">
-        <v>12.36375763820947</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="W18" t="n">
-        <v>12.36375763820947</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="X18" t="n">
-        <v>12.36375763820947</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.36375763820947</v>
+        <v>168.4718086257026</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="C19" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="D19" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="E19" t="n">
-        <v>12.36375763820947</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="F19" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="G19" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H19" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I19" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J19" t="n">
-        <v>12.36375763820947</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K19" t="n">
-        <v>49.31394045033558</v>
+        <v>49.31394045033557</v>
       </c>
       <c r="L19" t="n">
         <v>149.6846988555509</v>
@@ -5700,25 +5700,25 @@
         <v>522.059084122259</v>
       </c>
       <c r="S19" t="n">
-        <v>522.059084122259</v>
+        <v>365.9510331347659</v>
       </c>
       <c r="T19" t="n">
-        <v>522.059084122259</v>
+        <v>365.9510331347659</v>
       </c>
       <c r="U19" t="n">
-        <v>522.059084122259</v>
+        <v>365.9510331347659</v>
       </c>
       <c r="V19" t="n">
-        <v>522.059084122259</v>
+        <v>209.8429821472727</v>
       </c>
       <c r="W19" t="n">
-        <v>365.9510331347658</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="X19" t="n">
-        <v>324.579859613196</v>
+        <v>152.6939416972465</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.4718086257027</v>
+        <v>152.6939416972465</v>
       </c>
     </row>
     <row r="20">
@@ -5752,22 +5752,22 @@
         <v>12.36375763820947</v>
       </c>
       <c r="J20" t="n">
-        <v>12.36375763820966</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="K20" t="n">
-        <v>49.91888337054255</v>
+        <v>49.91888337054235</v>
       </c>
       <c r="L20" t="n">
-        <v>141.5294871595665</v>
+        <v>141.5294871595663</v>
       </c>
       <c r="M20" t="n">
-        <v>282.1006490302681</v>
+        <v>282.1006490302678</v>
       </c>
       <c r="N20" t="n">
-        <v>430.5752454848388</v>
+        <v>430.5752454848385</v>
       </c>
       <c r="O20" t="n">
-        <v>554.5065779511306</v>
+        <v>554.5065779511303</v>
       </c>
       <c r="P20" t="n">
         <v>618.1878819104735</v>
@@ -5776,19 +5776,19 @@
         <v>618.1878819104735</v>
       </c>
       <c r="R20" t="n">
-        <v>548.3891893240257</v>
+        <v>618.1878819104735</v>
       </c>
       <c r="S20" t="n">
-        <v>392.2811383365323</v>
+        <v>618.1878819104735</v>
       </c>
       <c r="T20" t="n">
-        <v>236.173087349039</v>
+        <v>480.6879106006895</v>
       </c>
       <c r="U20" t="n">
-        <v>80.06503636154565</v>
+        <v>324.5798596131962</v>
       </c>
       <c r="V20" t="n">
-        <v>12.36375763820947</v>
+        <v>168.4718086257028</v>
       </c>
       <c r="W20" t="n">
         <v>12.36375763820947</v>
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.55239163320491</v>
+        <v>393.1892899502467</v>
       </c>
       <c r="C21" t="n">
-        <v>83.55239163320491</v>
+        <v>239.6604426206982</v>
       </c>
       <c r="D21" t="n">
-        <v>83.55239163320491</v>
+        <v>239.6604426206982</v>
       </c>
       <c r="E21" t="n">
-        <v>83.55239163320491</v>
+        <v>239.6604426206982</v>
       </c>
       <c r="F21" t="n">
         <v>83.55239163320491</v>
@@ -5873,10 +5873,10 @@
         <v>549.29734093774</v>
       </c>
       <c r="X21" t="n">
-        <v>393.1892899502467</v>
+        <v>549.29734093774</v>
       </c>
       <c r="Y21" t="n">
-        <v>237.0812389627534</v>
+        <v>549.29734093774</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>462.0798309229801</v>
+        <v>53.73493115977902</v>
       </c>
       <c r="C22" t="n">
-        <v>462.0798309229801</v>
+        <v>53.73493115977902</v>
       </c>
       <c r="D22" t="n">
-        <v>462.0798309229801</v>
+        <v>53.73493115977902</v>
       </c>
       <c r="E22" t="n">
-        <v>404.9307904729543</v>
+        <v>53.73493115977902</v>
       </c>
       <c r="F22" t="n">
-        <v>264.6006064139173</v>
+        <v>53.73493115977902</v>
       </c>
       <c r="G22" t="n">
-        <v>108.4925554264239</v>
+        <v>53.73493115977902</v>
       </c>
       <c r="H22" t="n">
-        <v>108.4925554264239</v>
+        <v>53.73493115977902</v>
       </c>
       <c r="I22" t="n">
-        <v>108.4925554264239</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="J22" t="n">
-        <v>108.4925554264239</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="K22" t="n">
-        <v>145.44273823855</v>
+        <v>49.31394045033559</v>
       </c>
       <c r="L22" t="n">
-        <v>245.8134966437653</v>
+        <v>149.6846988555509</v>
       </c>
       <c r="M22" t="n">
-        <v>360.2362780126435</v>
+        <v>264.1074802244291</v>
       </c>
       <c r="N22" t="n">
-        <v>479.9544776476243</v>
+        <v>383.8256798594098</v>
       </c>
       <c r="O22" t="n">
-        <v>568.5359656083716</v>
+        <v>472.4071678201572</v>
       </c>
       <c r="P22" t="n">
-        <v>618.1878819104735</v>
+        <v>522.059084122259</v>
       </c>
       <c r="Q22" t="n">
-        <v>618.1878819104735</v>
+        <v>522.059084122259</v>
       </c>
       <c r="R22" t="n">
-        <v>618.1878819104735</v>
+        <v>522.059084122259</v>
       </c>
       <c r="S22" t="n">
-        <v>618.1878819104735</v>
+        <v>522.059084122259</v>
       </c>
       <c r="T22" t="n">
-        <v>618.1878819104735</v>
+        <v>365.9510331347657</v>
       </c>
       <c r="U22" t="n">
-        <v>618.1878819104735</v>
+        <v>209.8429821472724</v>
       </c>
       <c r="V22" t="n">
-        <v>618.1878819104735</v>
+        <v>209.8429821472724</v>
       </c>
       <c r="W22" t="n">
-        <v>462.0798309229801</v>
+        <v>209.8429821472724</v>
       </c>
       <c r="X22" t="n">
-        <v>462.0798309229801</v>
+        <v>209.8429821472724</v>
       </c>
       <c r="Y22" t="n">
-        <v>462.0798309229801</v>
+        <v>209.8429821472724</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.2021794697835</v>
+        <v>191.1737714713216</v>
       </c>
       <c r="C23" t="n">
-        <v>347.2021794697835</v>
+        <v>191.1737714713216</v>
       </c>
       <c r="D23" t="n">
-        <v>347.2021794697835</v>
+        <v>191.1737714713216</v>
       </c>
       <c r="E23" t="n">
-        <v>347.2021794697835</v>
+        <v>191.1737714713216</v>
       </c>
       <c r="F23" t="n">
-        <v>347.2021794697835</v>
+        <v>191.1737714713216</v>
       </c>
       <c r="G23" t="n">
-        <v>347.2021794697835</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="H23" t="n">
-        <v>179.4982144853891</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="I23" t="n">
         <v>14.02980235408513</v>
@@ -6013,28 +6013,28 @@
         <v>701.4901177042565</v>
       </c>
       <c r="R23" t="n">
-        <v>701.4901177042565</v>
+        <v>631.6914251178086</v>
       </c>
       <c r="S23" t="n">
-        <v>701.4901177042565</v>
+        <v>454.5474560005721</v>
       </c>
       <c r="T23" t="n">
-        <v>701.4901177042565</v>
+        <v>368.3177405885581</v>
       </c>
       <c r="U23" t="n">
-        <v>701.4901177042565</v>
+        <v>191.1737714713216</v>
       </c>
       <c r="V23" t="n">
-        <v>524.34614858702</v>
+        <v>191.1737714713216</v>
       </c>
       <c r="W23" t="n">
-        <v>524.34614858702</v>
+        <v>191.1737714713216</v>
       </c>
       <c r="X23" t="n">
-        <v>524.34614858702</v>
+        <v>191.1737714713216</v>
       </c>
       <c r="Y23" t="n">
-        <v>524.34614858702</v>
+        <v>191.1737714713216</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.02980235408513</v>
+        <v>340.3386670555386</v>
       </c>
       <c r="C24" t="n">
-        <v>14.02980235408513</v>
+        <v>163.1946979383021</v>
       </c>
       <c r="D24" t="n">
-        <v>14.02980235408513</v>
+        <v>163.1946979383021</v>
       </c>
       <c r="E24" t="n">
-        <v>14.02980235408513</v>
+        <v>163.1946979383021</v>
       </c>
       <c r="F24" t="n">
-        <v>14.02980235408513</v>
+        <v>163.1946979383021</v>
       </c>
       <c r="G24" t="n">
         <v>14.02980235408513</v>
@@ -6071,13 +6071,13 @@
         <v>14.02980235408513</v>
       </c>
       <c r="K24" t="n">
-        <v>53.60417902695354</v>
+        <v>53.60417902695372</v>
       </c>
       <c r="L24" t="n">
-        <v>163.3303124543298</v>
+        <v>163.33031245433</v>
       </c>
       <c r="M24" t="n">
-        <v>314.9909138868836</v>
+        <v>314.9909138868838</v>
       </c>
       <c r="N24" t="n">
         <v>488.244066956365</v>
@@ -6092,28 +6092,28 @@
         <v>701.4901177042565</v>
       </c>
       <c r="R24" t="n">
-        <v>632.599576731523</v>
+        <v>701.4901177042565</v>
       </c>
       <c r="S24" t="n">
-        <v>459.1745371157004</v>
+        <v>528.0650780884339</v>
       </c>
       <c r="T24" t="n">
-        <v>368.3177405885581</v>
+        <v>528.0650780884339</v>
       </c>
       <c r="U24" t="n">
-        <v>368.3177405885581</v>
+        <v>528.0650780884339</v>
       </c>
       <c r="V24" t="n">
-        <v>368.3177405885581</v>
+        <v>350.9211089711974</v>
       </c>
       <c r="W24" t="n">
-        <v>368.3177405885581</v>
+        <v>350.9211089711974</v>
       </c>
       <c r="X24" t="n">
-        <v>191.1737714713216</v>
+        <v>350.9211089711974</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.02980235408513</v>
+        <v>350.9211089711974</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>191.7947912202069</v>
+        <v>359.0341658903575</v>
       </c>
       <c r="C25" t="n">
-        <v>191.7947912202069</v>
+        <v>190.8955992520016</v>
       </c>
       <c r="D25" t="n">
-        <v>191.7947912202069</v>
+        <v>190.8955992520016</v>
       </c>
       <c r="E25" t="n">
-        <v>191.7947912202069</v>
+        <v>47.78838590631975</v>
       </c>
       <c r="F25" t="n">
-        <v>191.7947912202069</v>
+        <v>47.78838590631975</v>
       </c>
       <c r="G25" t="n">
-        <v>191.7947912202069</v>
+        <v>47.78838590631975</v>
       </c>
       <c r="H25" t="n">
-        <v>191.7947912202069</v>
+        <v>47.78838590631975</v>
       </c>
       <c r="I25" t="n">
-        <v>191.7947912202069</v>
+        <v>47.78838590631975</v>
       </c>
       <c r="J25" t="n">
-        <v>191.7947912202069</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="K25" t="n">
-        <v>228.7449740323331</v>
+        <v>50.97998516621124</v>
       </c>
       <c r="L25" t="n">
-        <v>329.1157324375484</v>
+        <v>151.3507435714266</v>
       </c>
       <c r="M25" t="n">
-        <v>443.5385138064266</v>
+        <v>265.7735249403048</v>
       </c>
       <c r="N25" t="n">
-        <v>563.2567134414073</v>
+        <v>385.4917245752856</v>
       </c>
       <c r="O25" t="n">
-        <v>651.8382014021546</v>
+        <v>474.0732125360329</v>
       </c>
       <c r="P25" t="n">
-        <v>701.4901177042565</v>
+        <v>523.7251288381348</v>
       </c>
       <c r="Q25" t="n">
-        <v>701.4901177042565</v>
+        <v>523.7251288381348</v>
       </c>
       <c r="R25" t="n">
-        <v>701.4901177042565</v>
+        <v>359.0341658903575</v>
       </c>
       <c r="S25" t="n">
-        <v>701.4901177042565</v>
+        <v>359.0341658903575</v>
       </c>
       <c r="T25" t="n">
-        <v>701.4901177042565</v>
+        <v>359.0341658903575</v>
       </c>
       <c r="U25" t="n">
-        <v>701.4901177042565</v>
+        <v>359.0341658903575</v>
       </c>
       <c r="V25" t="n">
-        <v>701.4901177042565</v>
+        <v>359.0341658903575</v>
       </c>
       <c r="W25" t="n">
-        <v>701.4901177042565</v>
+        <v>359.0341658903575</v>
       </c>
       <c r="X25" t="n">
-        <v>546.08272945468</v>
+        <v>359.0341658903575</v>
       </c>
       <c r="Y25" t="n">
-        <v>368.9387603374435</v>
+        <v>359.0341658903575</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.02980235408513</v>
+        <v>170.058210352547</v>
       </c>
       <c r="C26" t="n">
-        <v>14.02980235408513</v>
+        <v>170.058210352547</v>
       </c>
       <c r="D26" t="n">
-        <v>14.02980235408513</v>
+        <v>170.058210352547</v>
       </c>
       <c r="E26" t="n">
-        <v>14.02980235408513</v>
+        <v>170.058210352547</v>
       </c>
       <c r="F26" t="n">
         <v>14.02980235408513</v>
@@ -6226,52 +6226,52 @@
         <v>14.02980235408513</v>
       </c>
       <c r="J26" t="n">
-        <v>95.66599343199265</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="K26" t="n">
-        <v>133.2211191643255</v>
+        <v>51.58492808641802</v>
       </c>
       <c r="L26" t="n">
-        <v>224.8317229533495</v>
+        <v>224.8317229533497</v>
       </c>
       <c r="M26" t="n">
-        <v>365.4028848240511</v>
+        <v>365.4028848240513</v>
       </c>
       <c r="N26" t="n">
-        <v>513.8774812786218</v>
+        <v>513.877481278622</v>
       </c>
       <c r="O26" t="n">
-        <v>637.8088137449136</v>
+        <v>637.8088137449138</v>
       </c>
       <c r="P26" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="Q26" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="R26" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="S26" t="n">
-        <v>701.4901177042565</v>
+        <v>524.3461485870201</v>
       </c>
       <c r="T26" t="n">
-        <v>524.34614858702</v>
+        <v>524.3461485870201</v>
       </c>
       <c r="U26" t="n">
-        <v>347.2021794697835</v>
+        <v>347.2021794697836</v>
       </c>
       <c r="V26" t="n">
         <v>170.058210352547</v>
       </c>
       <c r="W26" t="n">
-        <v>14.02980235408513</v>
+        <v>170.058210352547</v>
       </c>
       <c r="X26" t="n">
-        <v>14.02980235408513</v>
+        <v>170.058210352547</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.02980235408513</v>
+        <v>170.058210352547</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>524.34614858702</v>
+        <v>348.0207225154265</v>
       </c>
       <c r="C27" t="n">
-        <v>524.34614858702</v>
+        <v>348.0207225154265</v>
       </c>
       <c r="D27" t="n">
-        <v>524.34614858702</v>
+        <v>348.0207225154265</v>
       </c>
       <c r="E27" t="n">
-        <v>350.7829447084345</v>
+        <v>174.457518636841</v>
       </c>
       <c r="F27" t="n">
-        <v>190.3552284256785</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="G27" t="n">
-        <v>41.19033284146161</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="H27" t="n">
         <v>14.02980235408513</v>
@@ -6308,49 +6308,49 @@
         <v>14.02980235408513</v>
       </c>
       <c r="K27" t="n">
-        <v>53.60417902695354</v>
+        <v>53.60417902695355</v>
       </c>
       <c r="L27" t="n">
         <v>163.3303124543298</v>
       </c>
       <c r="M27" t="n">
-        <v>314.9909138868836</v>
+        <v>314.990913886884</v>
       </c>
       <c r="N27" t="n">
-        <v>488.2440669563649</v>
+        <v>488.2440669563652</v>
       </c>
       <c r="O27" t="n">
-        <v>619.6287041216744</v>
+        <v>619.6287041216748</v>
       </c>
       <c r="P27" t="n">
-        <v>701.4901177042564</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="Q27" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="R27" t="n">
-        <v>701.4901177042565</v>
+        <v>632.5995767315233</v>
       </c>
       <c r="S27" t="n">
-        <v>701.4901177042565</v>
+        <v>632.5995767315233</v>
       </c>
       <c r="T27" t="n">
-        <v>701.4901177042565</v>
+        <v>455.4556076142867</v>
       </c>
       <c r="U27" t="n">
-        <v>701.4901177042565</v>
+        <v>455.4556076142867</v>
       </c>
       <c r="V27" t="n">
-        <v>701.4901177042565</v>
+        <v>455.4556076142867</v>
       </c>
       <c r="W27" t="n">
-        <v>701.4901177042565</v>
+        <v>455.4556076142867</v>
       </c>
       <c r="X27" t="n">
-        <v>701.4901177042565</v>
+        <v>455.4556076142867</v>
       </c>
       <c r="Y27" t="n">
-        <v>524.34614858702</v>
+        <v>348.0207225154265</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>523.7251288381348</v>
+        <v>408.9765798478013</v>
       </c>
       <c r="C28" t="n">
-        <v>355.5865621997789</v>
+        <v>240.8380132094454</v>
       </c>
       <c r="D28" t="n">
-        <v>355.5865621997789</v>
+        <v>240.8380132094454</v>
       </c>
       <c r="E28" t="n">
-        <v>355.5865621997789</v>
+        <v>240.8380132094454</v>
       </c>
       <c r="F28" t="n">
-        <v>355.5865621997789</v>
+        <v>240.8380132094454</v>
       </c>
       <c r="G28" t="n">
-        <v>355.5865621997789</v>
+        <v>71.34045311035719</v>
       </c>
       <c r="H28" t="n">
-        <v>210.5747281164333</v>
+        <v>71.34045311035719</v>
       </c>
       <c r="I28" t="n">
         <v>71.34045311035719</v>
@@ -6387,7 +6387,7 @@
         <v>14.02980235408513</v>
       </c>
       <c r="K28" t="n">
-        <v>50.97998516621124</v>
+        <v>50.97998516621125</v>
       </c>
       <c r="L28" t="n">
         <v>151.3507435714266</v>
@@ -6405,31 +6405,31 @@
         <v>523.7251288381348</v>
       </c>
       <c r="Q28" t="n">
-        <v>523.7251288381348</v>
+        <v>471.1940322910388</v>
       </c>
       <c r="R28" t="n">
-        <v>523.7251288381348</v>
+        <v>471.1940322910388</v>
       </c>
       <c r="S28" t="n">
-        <v>523.7251288381348</v>
+        <v>471.1940322910388</v>
       </c>
       <c r="T28" t="n">
-        <v>523.7251288381348</v>
+        <v>471.1940322910388</v>
       </c>
       <c r="U28" t="n">
-        <v>523.7251288381348</v>
+        <v>471.1940322910388</v>
       </c>
       <c r="V28" t="n">
-        <v>523.7251288381348</v>
+        <v>471.1940322910388</v>
       </c>
       <c r="W28" t="n">
-        <v>523.7251288381348</v>
+        <v>471.1940322910388</v>
       </c>
       <c r="X28" t="n">
-        <v>523.7251288381348</v>
+        <v>471.1940322910388</v>
       </c>
       <c r="Y28" t="n">
-        <v>523.7251288381348</v>
+        <v>408.9765798478013</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>524.34614858702</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="C29" t="n">
-        <v>524.34614858702</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="D29" t="n">
-        <v>347.2021794697835</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="E29" t="n">
-        <v>170.058210352547</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="F29" t="n">
         <v>14.02980235408513</v>
@@ -6463,52 +6463,52 @@
         <v>14.02980235408513</v>
       </c>
       <c r="J29" t="n">
-        <v>95.66599343199265</v>
+        <v>95.66599343199287</v>
       </c>
       <c r="K29" t="n">
-        <v>133.2211191643255</v>
+        <v>133.2211191643258</v>
       </c>
       <c r="L29" t="n">
-        <v>224.8317229533495</v>
+        <v>224.8317229533497</v>
       </c>
       <c r="M29" t="n">
-        <v>365.4028848240511</v>
+        <v>365.4028848240513</v>
       </c>
       <c r="N29" t="n">
-        <v>513.8774812786218</v>
+        <v>513.877481278622</v>
       </c>
       <c r="O29" t="n">
-        <v>637.8088137449136</v>
+        <v>637.8088137449138</v>
       </c>
       <c r="P29" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="Q29" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="R29" t="n">
-        <v>701.4901177042565</v>
+        <v>631.6914251178089</v>
       </c>
       <c r="S29" t="n">
-        <v>701.4901177042565</v>
+        <v>545.4617097057949</v>
       </c>
       <c r="T29" t="n">
-        <v>701.4901177042565</v>
+        <v>368.3177405885583</v>
       </c>
       <c r="U29" t="n">
-        <v>701.4901177042565</v>
+        <v>191.1737714713217</v>
       </c>
       <c r="V29" t="n">
-        <v>524.34614858702</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="W29" t="n">
-        <v>524.34614858702</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="X29" t="n">
-        <v>524.34614858702</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="Y29" t="n">
-        <v>524.34614858702</v>
+        <v>14.02980235408513</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>684.928255408964</v>
+        <v>524.3461485870201</v>
       </c>
       <c r="C30" t="n">
-        <v>684.928255408964</v>
+        <v>497.5380180558559</v>
       </c>
       <c r="D30" t="n">
-        <v>684.928255408964</v>
+        <v>336.7579018168876</v>
       </c>
       <c r="E30" t="n">
-        <v>511.3650515303784</v>
+        <v>163.1946979383021</v>
       </c>
       <c r="F30" t="n">
-        <v>350.9373352476225</v>
+        <v>163.1946979383021</v>
       </c>
       <c r="G30" t="n">
-        <v>201.7724396634056</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="H30" t="n">
-        <v>85.21843634908056</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="I30" t="n">
         <v>14.02980235408513</v>
@@ -6545,49 +6545,49 @@
         <v>14.02980235408513</v>
       </c>
       <c r="K30" t="n">
-        <v>53.60417902695372</v>
+        <v>53.60417902695355</v>
       </c>
       <c r="L30" t="n">
-        <v>163.33031245433</v>
+        <v>163.3303124543298</v>
       </c>
       <c r="M30" t="n">
-        <v>314.9909138868838</v>
+        <v>314.9909138868836</v>
       </c>
       <c r="N30" t="n">
-        <v>488.244066956365</v>
+        <v>488.2440669563649</v>
       </c>
       <c r="O30" t="n">
-        <v>619.6287041216746</v>
+        <v>619.6287041216744</v>
       </c>
       <c r="P30" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042564</v>
       </c>
       <c r="Q30" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="R30" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="S30" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="T30" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="U30" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042567</v>
       </c>
       <c r="V30" t="n">
-        <v>701.4901177042565</v>
+        <v>524.3461485870201</v>
       </c>
       <c r="W30" t="n">
-        <v>684.928255408964</v>
+        <v>524.3461485870201</v>
       </c>
       <c r="X30" t="n">
-        <v>684.928255408964</v>
+        <v>524.3461485870201</v>
       </c>
       <c r="Y30" t="n">
-        <v>684.928255408964</v>
+        <v>524.3461485870201</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.4371906036617</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="C31" t="n">
-        <v>169.4371906036617</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="D31" t="n">
-        <v>169.4371906036617</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="E31" t="n">
-        <v>26.32997725797992</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="F31" t="n">
-        <v>26.32997725797992</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="G31" t="n">
-        <v>26.32997725797992</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="H31" t="n">
         <v>14.02980235408513</v>
@@ -6624,7 +6624,7 @@
         <v>14.02980235408513</v>
       </c>
       <c r="K31" t="n">
-        <v>50.97998516621124</v>
+        <v>50.97998516621125</v>
       </c>
       <c r="L31" t="n">
         <v>151.3507435714266</v>
@@ -6648,25 +6648,25 @@
         <v>523.7251288381348</v>
       </c>
       <c r="S31" t="n">
-        <v>523.7251288381348</v>
+        <v>368.3177405885583</v>
       </c>
       <c r="T31" t="n">
-        <v>523.7251288381348</v>
+        <v>191.1737714713217</v>
       </c>
       <c r="U31" t="n">
-        <v>523.7251288381348</v>
+        <v>191.1737714713217</v>
       </c>
       <c r="V31" t="n">
-        <v>523.7251288381348</v>
+        <v>191.1737714713217</v>
       </c>
       <c r="W31" t="n">
-        <v>523.7251288381348</v>
+        <v>191.1737714713217</v>
       </c>
       <c r="X31" t="n">
-        <v>346.5811597208983</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="Y31" t="n">
-        <v>346.5811597208983</v>
+        <v>14.02980235408513</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.058210352547</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="C32" t="n">
-        <v>170.058210352547</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="D32" t="n">
-        <v>170.058210352547</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="E32" t="n">
         <v>14.02980235408513</v>
@@ -6703,49 +6703,49 @@
         <v>14.02980235408513</v>
       </c>
       <c r="K32" t="n">
-        <v>51.58492808641801</v>
+        <v>51.58492808641802</v>
       </c>
       <c r="L32" t="n">
-        <v>143.195531875442</v>
+        <v>224.8317229533496</v>
       </c>
       <c r="M32" t="n">
-        <v>283.7666937461436</v>
+        <v>365.4028848240512</v>
       </c>
       <c r="N32" t="n">
-        <v>457.385497877947</v>
+        <v>513.8774812786219</v>
       </c>
       <c r="O32" t="n">
-        <v>581.3168303442388</v>
+        <v>637.8088137449137</v>
       </c>
       <c r="P32" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042566</v>
       </c>
       <c r="Q32" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042566</v>
       </c>
       <c r="R32" t="n">
-        <v>701.4901177042565</v>
+        <v>631.6914251178086</v>
       </c>
       <c r="S32" t="n">
-        <v>701.4901177042565</v>
+        <v>631.6914251178086</v>
       </c>
       <c r="T32" t="n">
-        <v>524.34614858702</v>
+        <v>631.6914251178086</v>
       </c>
       <c r="U32" t="n">
-        <v>524.34614858702</v>
+        <v>631.6914251178086</v>
       </c>
       <c r="V32" t="n">
-        <v>524.34614858702</v>
+        <v>631.6914251178086</v>
       </c>
       <c r="W32" t="n">
-        <v>347.2021794697835</v>
+        <v>454.5474560005721</v>
       </c>
       <c r="X32" t="n">
-        <v>170.058210352547</v>
+        <v>368.3177405885582</v>
       </c>
       <c r="Y32" t="n">
-        <v>170.058210352547</v>
+        <v>191.1737714713217</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>85.21843634908056</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="C33" t="n">
-        <v>85.21843634908056</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="D33" t="n">
-        <v>85.21843634908056</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="E33" t="n">
-        <v>85.21843634908056</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="F33" t="n">
-        <v>85.21843634908056</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="G33" t="n">
-        <v>85.21843634908056</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="H33" t="n">
-        <v>85.21843634908056</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="I33" t="n">
         <v>14.02980235408513</v>
@@ -6782,49 +6782,49 @@
         <v>14.02980235408513</v>
       </c>
       <c r="K33" t="n">
-        <v>53.60417902695354</v>
+        <v>53.60417902695372</v>
       </c>
       <c r="L33" t="n">
-        <v>163.3303124543298</v>
+        <v>163.3303124543299</v>
       </c>
       <c r="M33" t="n">
-        <v>314.9909138868836</v>
+        <v>314.9909138868838</v>
       </c>
       <c r="N33" t="n">
-        <v>488.2440669563649</v>
+        <v>488.2440669563651</v>
       </c>
       <c r="O33" t="n">
-        <v>619.6287041216744</v>
+        <v>619.6287041216747</v>
       </c>
       <c r="P33" t="n">
-        <v>701.4901177042564</v>
+        <v>701.4901177042566</v>
       </c>
       <c r="Q33" t="n">
-        <v>701.4901177042565</v>
+        <v>701.4901177042566</v>
       </c>
       <c r="R33" t="n">
-        <v>632.599576731523</v>
+        <v>701.4901177042566</v>
       </c>
       <c r="S33" t="n">
-        <v>459.1745371157004</v>
+        <v>528.065078088434</v>
       </c>
       <c r="T33" t="n">
-        <v>282.0305679984639</v>
+        <v>350.9211089711974</v>
       </c>
       <c r="U33" t="n">
-        <v>262.3624054663171</v>
+        <v>350.9211089711974</v>
       </c>
       <c r="V33" t="n">
-        <v>262.3624054663171</v>
+        <v>191.1737714713217</v>
       </c>
       <c r="W33" t="n">
-        <v>262.3624054663171</v>
+        <v>191.1737714713217</v>
       </c>
       <c r="X33" t="n">
-        <v>85.21843634908056</v>
+        <v>191.1737714713217</v>
       </c>
       <c r="Y33" t="n">
-        <v>85.21843634908056</v>
+        <v>191.1737714713217</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>523.7251288381348</v>
+        <v>182.168368992441</v>
       </c>
       <c r="C34" t="n">
-        <v>523.7251288381348</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="D34" t="n">
-        <v>466.9647598578921</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="E34" t="n">
-        <v>323.8575465122103</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="F34" t="n">
-        <v>183.5273624531733</v>
+        <v>14.02980235408513</v>
       </c>
       <c r="G34" t="n">
         <v>14.02980235408513</v>
@@ -6861,7 +6861,7 @@
         <v>14.02980235408513</v>
       </c>
       <c r="K34" t="n">
-        <v>50.97998516621124</v>
+        <v>50.97998516621125</v>
       </c>
       <c r="L34" t="n">
         <v>151.3507435714266</v>
@@ -6888,22 +6888,22 @@
         <v>523.7251288381348</v>
       </c>
       <c r="T34" t="n">
-        <v>523.7251288381348</v>
+        <v>359.3123381096776</v>
       </c>
       <c r="U34" t="n">
-        <v>523.7251288381348</v>
+        <v>182.168368992441</v>
       </c>
       <c r="V34" t="n">
-        <v>523.7251288381348</v>
+        <v>182.168368992441</v>
       </c>
       <c r="W34" t="n">
-        <v>523.7251288381348</v>
+        <v>182.168368992441</v>
       </c>
       <c r="X34" t="n">
-        <v>523.7251288381348</v>
+        <v>182.168368992441</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.7251288381348</v>
+        <v>182.168368992441</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12.36375763820946</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="C35" t="n">
-        <v>12.36375763820946</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="D35" t="n">
-        <v>12.36375763820946</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="E35" t="n">
-        <v>12.36375763820946</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="F35" t="n">
-        <v>12.36375763820946</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="G35" t="n">
-        <v>12.36375763820946</v>
+        <v>149.8637289479934</v>
       </c>
       <c r="H35" t="n">
         <v>12.36375763820946</v>
@@ -6937,25 +6937,25 @@
         <v>12.36375763820946</v>
       </c>
       <c r="J35" t="n">
-        <v>12.36375763820898</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K35" t="n">
-        <v>49.91888337054186</v>
+        <v>49.91888337054234</v>
       </c>
       <c r="L35" t="n">
-        <v>141.5294871595658</v>
+        <v>141.5294871595663</v>
       </c>
       <c r="M35" t="n">
-        <v>282.1006490302674</v>
+        <v>282.1006490302678</v>
       </c>
       <c r="N35" t="n">
-        <v>430.5752454848381</v>
+        <v>430.5752454848385</v>
       </c>
       <c r="O35" t="n">
-        <v>554.5065779511299</v>
+        <v>554.5065779511303</v>
       </c>
       <c r="P35" t="n">
-        <v>618.1878819104728</v>
+        <v>618.1878819104733</v>
       </c>
       <c r="Q35" t="n">
         <v>618.1878819104728</v>
@@ -6964,25 +6964,25 @@
         <v>618.1878819104728</v>
       </c>
       <c r="S35" t="n">
-        <v>480.687910600689</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="T35" t="n">
-        <v>324.5798596131958</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="U35" t="n">
-        <v>168.4718086257026</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="V35" t="n">
-        <v>168.4718086257026</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="W35" t="n">
-        <v>12.36375763820946</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="X35" t="n">
-        <v>12.36375763820946</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.36375763820946</v>
+        <v>462.0798309229797</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.36375763820946</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="C36" t="n">
-        <v>12.36375763820946</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="D36" t="n">
-        <v>12.36375763820946</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="E36" t="n">
-        <v>12.36375763820946</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="F36" t="n">
         <v>12.36375763820946</v>
@@ -7028,7 +7028,7 @@
         <v>313.324869171008</v>
       </c>
       <c r="N36" t="n">
-        <v>404.9418311625814</v>
+        <v>466.32636994385</v>
       </c>
       <c r="O36" t="n">
         <v>536.3264683278909</v>
@@ -7040,28 +7040,28 @@
         <v>618.1878819104728</v>
       </c>
       <c r="R36" t="n">
-        <v>549.2973409377394</v>
+        <v>618.1878819104728</v>
       </c>
       <c r="S36" t="n">
-        <v>393.1892899502462</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="T36" t="n">
-        <v>237.0812389627531</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="U36" t="n">
-        <v>80.97318797525992</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="V36" t="n">
-        <v>12.36375763820946</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="W36" t="n">
-        <v>12.36375763820946</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="X36" t="n">
-        <v>12.36375763820946</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.36375763820946</v>
+        <v>305.9717799354866</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.4925554264232</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="C37" t="n">
-        <v>108.4925554264232</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="D37" t="n">
-        <v>108.4925554264232</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="E37" t="n">
-        <v>108.4925554264232</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="F37" t="n">
-        <v>108.4925554264232</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="G37" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H37" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I37" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J37" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K37" t="n">
-        <v>145.4427382385493</v>
+        <v>49.31394045033557</v>
       </c>
       <c r="L37" t="n">
-        <v>245.8134966437647</v>
+        <v>149.6846988555509</v>
       </c>
       <c r="M37" t="n">
-        <v>360.2362780126429</v>
+        <v>264.1074802244291</v>
       </c>
       <c r="N37" t="n">
-        <v>479.9544776476236</v>
+        <v>383.8256798594098</v>
       </c>
       <c r="O37" t="n">
-        <v>568.5359656083709</v>
+        <v>472.4071678201572</v>
       </c>
       <c r="P37" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="Q37" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="R37" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="S37" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="T37" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="U37" t="n">
-        <v>462.0798309229797</v>
+        <v>522.059084122259</v>
       </c>
       <c r="V37" t="n">
-        <v>305.9717799354866</v>
+        <v>365.9510331347659</v>
       </c>
       <c r="W37" t="n">
-        <v>149.8637289479934</v>
+        <v>209.8429821472727</v>
       </c>
       <c r="X37" t="n">
-        <v>108.4925554264232</v>
+        <v>209.8429821472727</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.4925554264232</v>
+        <v>168.4718086257026</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.36375763820946</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="C38" t="n">
-        <v>12.36375763820946</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="D38" t="n">
-        <v>12.36375763820946</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="E38" t="n">
-        <v>12.36375763820946</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="F38" t="n">
         <v>12.36375763820946</v>
@@ -7177,16 +7177,16 @@
         <v>12.36375763820946</v>
       </c>
       <c r="K38" t="n">
-        <v>49.91888337054234</v>
+        <v>49.91888337054218</v>
       </c>
       <c r="L38" t="n">
-        <v>141.5294871595663</v>
+        <v>141.5294871595661</v>
       </c>
       <c r="M38" t="n">
-        <v>282.1006490302678</v>
+        <v>282.1006490302676</v>
       </c>
       <c r="N38" t="n">
-        <v>430.5752454848385</v>
+        <v>430.5752454848381</v>
       </c>
       <c r="O38" t="n">
         <v>554.5065779511299</v>
@@ -7201,25 +7201,25 @@
         <v>548.389189324025</v>
       </c>
       <c r="S38" t="n">
-        <v>548.389189324025</v>
+        <v>480.687910600689</v>
       </c>
       <c r="T38" t="n">
-        <v>548.389189324025</v>
+        <v>480.687910600689</v>
       </c>
       <c r="U38" t="n">
-        <v>392.2811383365319</v>
+        <v>480.687910600689</v>
       </c>
       <c r="V38" t="n">
-        <v>392.2811383365319</v>
+        <v>480.687910600689</v>
       </c>
       <c r="W38" t="n">
+        <v>480.687910600689</v>
+      </c>
+      <c r="X38" t="n">
+        <v>480.687910600689</v>
+      </c>
+      <c r="Y38" t="n">
         <v>324.5798596131958</v>
-      </c>
-      <c r="X38" t="n">
-        <v>168.4718086257026</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>168.4718086257026</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>618.1878819104728</v>
+        <v>434.1907075242445</v>
       </c>
       <c r="C39" t="n">
-        <v>462.0798309229797</v>
+        <v>434.1907075242445</v>
       </c>
       <c r="D39" t="n">
-        <v>462.0798309229797</v>
+        <v>434.1907075242445</v>
       </c>
       <c r="E39" t="n">
-        <v>305.9717799354866</v>
+        <v>278.0826565367514</v>
       </c>
       <c r="F39" t="n">
-        <v>149.8637289479934</v>
+        <v>278.0826565367514</v>
       </c>
       <c r="G39" t="n">
-        <v>12.36375763820946</v>
+        <v>128.9177609525345</v>
       </c>
       <c r="H39" t="n">
         <v>12.36375763820946</v>
@@ -7277,28 +7277,28 @@
         <v>618.1878819104728</v>
       </c>
       <c r="R39" t="n">
-        <v>618.1878819104728</v>
+        <v>590.2987585117377</v>
       </c>
       <c r="S39" t="n">
-        <v>618.1878819104728</v>
+        <v>590.2987585117377</v>
       </c>
       <c r="T39" t="n">
-        <v>618.1878819104728</v>
+        <v>590.2987585117377</v>
       </c>
       <c r="U39" t="n">
-        <v>618.1878819104728</v>
+        <v>590.2987585117377</v>
       </c>
       <c r="V39" t="n">
-        <v>618.1878819104728</v>
+        <v>590.2987585117377</v>
       </c>
       <c r="W39" t="n">
-        <v>618.1878819104728</v>
+        <v>590.2987585117377</v>
       </c>
       <c r="X39" t="n">
-        <v>618.1878819104728</v>
+        <v>590.2987585117377</v>
       </c>
       <c r="Y39" t="n">
-        <v>618.1878819104728</v>
+        <v>434.1907075242445</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108.4925554264232</v>
+        <v>209.8429821472727</v>
       </c>
       <c r="C40" t="n">
-        <v>108.4925554264232</v>
+        <v>53.73493115977959</v>
       </c>
       <c r="D40" t="n">
-        <v>108.4925554264232</v>
+        <v>53.73493115977959</v>
       </c>
       <c r="E40" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="F40" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="G40" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H40" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I40" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="J40" t="n">
-        <v>108.4925554264232</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="K40" t="n">
-        <v>145.4427382385493</v>
+        <v>49.31394045033557</v>
       </c>
       <c r="L40" t="n">
-        <v>245.8134966437647</v>
+        <v>149.6846988555509</v>
       </c>
       <c r="M40" t="n">
-        <v>360.2362780126429</v>
+        <v>264.1074802244291</v>
       </c>
       <c r="N40" t="n">
-        <v>479.9544776476236</v>
+        <v>383.8256798594098</v>
       </c>
       <c r="O40" t="n">
-        <v>568.5359656083709</v>
+        <v>472.4071678201572</v>
       </c>
       <c r="P40" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="Q40" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="R40" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="S40" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="T40" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="U40" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="V40" t="n">
-        <v>618.1878819104728</v>
+        <v>522.059084122259</v>
       </c>
       <c r="W40" t="n">
-        <v>462.0798309229797</v>
+        <v>522.059084122259</v>
       </c>
       <c r="X40" t="n">
-        <v>305.9717799354866</v>
+        <v>522.059084122259</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.8637289479934</v>
+        <v>365.9510331347659</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>618.1878819104728</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="C41" t="n">
-        <v>618.1878819104728</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="D41" t="n">
-        <v>480.687910600689</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="E41" t="n">
-        <v>324.5798596131958</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="F41" t="n">
-        <v>168.4718086257026</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="G41" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="H41" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="I41" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="J41" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="K41" t="n">
-        <v>49.91888337054206</v>
+        <v>49.91888337054246</v>
       </c>
       <c r="L41" t="n">
-        <v>141.5294871595659</v>
+        <v>141.5294871595664</v>
       </c>
       <c r="M41" t="n">
-        <v>282.1006490302675</v>
+        <v>282.100649030268</v>
       </c>
       <c r="N41" t="n">
-        <v>430.5752454848381</v>
+        <v>430.5752454848385</v>
       </c>
       <c r="O41" t="n">
-        <v>554.5065779511299</v>
+        <v>554.5065779511303</v>
       </c>
       <c r="P41" t="n">
-        <v>618.1878819104728</v>
+        <v>618.1878819104733</v>
       </c>
       <c r="Q41" t="n">
-        <v>618.1878819104728</v>
+        <v>618.1878819104733</v>
       </c>
       <c r="R41" t="n">
-        <v>618.1878819104728</v>
+        <v>548.3891893240254</v>
       </c>
       <c r="S41" t="n">
-        <v>618.1878819104728</v>
+        <v>548.3891893240254</v>
       </c>
       <c r="T41" t="n">
-        <v>618.1878819104728</v>
+        <v>480.6879106006893</v>
       </c>
       <c r="U41" t="n">
-        <v>618.1878819104728</v>
+        <v>324.579859613196</v>
       </c>
       <c r="V41" t="n">
-        <v>618.1878819104728</v>
+        <v>168.4718086257027</v>
       </c>
       <c r="W41" t="n">
-        <v>618.1878819104728</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="X41" t="n">
-        <v>618.1878819104728</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="Y41" t="n">
-        <v>618.1878819104728</v>
+        <v>12.36375763820947</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>149.8637289479934</v>
+        <v>441.133862927521</v>
       </c>
       <c r="C42" t="n">
-        <v>149.8637289479934</v>
+        <v>285.0258119400278</v>
       </c>
       <c r="D42" t="n">
-        <v>149.8637289479934</v>
+        <v>285.0258119400278</v>
       </c>
       <c r="E42" t="n">
-        <v>12.36375763820946</v>
+        <v>128.9177609525345</v>
       </c>
       <c r="F42" t="n">
-        <v>12.36375763820946</v>
+        <v>128.9177609525345</v>
       </c>
       <c r="G42" t="n">
-        <v>12.36375763820946</v>
+        <v>128.9177609525345</v>
       </c>
       <c r="H42" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="I42" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="J42" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="K42" t="n">
-        <v>51.93813431107787</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="L42" t="n">
-        <v>161.6642677384542</v>
+        <v>122.0898910655858</v>
       </c>
       <c r="M42" t="n">
-        <v>313.324869171008</v>
+        <v>251.9403303897397</v>
       </c>
       <c r="N42" t="n">
-        <v>404.9418311625814</v>
+        <v>404.9418311625818</v>
       </c>
       <c r="O42" t="n">
-        <v>536.3264683278909</v>
+        <v>536.3264683278913</v>
       </c>
       <c r="P42" t="n">
-        <v>618.1878819104728</v>
+        <v>618.1878819104733</v>
       </c>
       <c r="Q42" t="n">
-        <v>618.1878819104728</v>
+        <v>618.1878819104733</v>
       </c>
       <c r="R42" t="n">
-        <v>618.1878819104728</v>
+        <v>618.1878819104733</v>
       </c>
       <c r="S42" t="n">
-        <v>618.1878819104728</v>
+        <v>618.1878819104733</v>
       </c>
       <c r="T42" t="n">
-        <v>618.1878819104728</v>
+        <v>618.1878819104733</v>
       </c>
       <c r="U42" t="n">
-        <v>462.0798309229797</v>
+        <v>462.07983092298</v>
       </c>
       <c r="V42" t="n">
-        <v>305.9717799354866</v>
+        <v>462.07983092298</v>
       </c>
       <c r="W42" t="n">
-        <v>149.8637289479934</v>
+        <v>441.133862927521</v>
       </c>
       <c r="X42" t="n">
-        <v>149.8637289479934</v>
+        <v>441.133862927521</v>
       </c>
       <c r="Y42" t="n">
-        <v>149.8637289479934</v>
+        <v>441.133862927521</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.8429821472727</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="C43" t="n">
-        <v>209.8429821472727</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="D43" t="n">
-        <v>209.8429821472727</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="E43" t="n">
-        <v>209.8429821472727</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="F43" t="n">
-        <v>168.4718086257026</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="G43" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="H43" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="I43" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="J43" t="n">
-        <v>12.36375763820946</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="K43" t="n">
-        <v>49.31394045033557</v>
+        <v>49.31394045033558</v>
       </c>
       <c r="L43" t="n">
         <v>149.6846988555509</v>
@@ -7590,31 +7590,31 @@
         <v>522.059084122259</v>
       </c>
       <c r="Q43" t="n">
-        <v>522.059084122259</v>
+        <v>480.6879106006893</v>
       </c>
       <c r="R43" t="n">
-        <v>522.059084122259</v>
+        <v>480.6879106006893</v>
       </c>
       <c r="S43" t="n">
-        <v>522.059084122259</v>
+        <v>480.6879106006893</v>
       </c>
       <c r="T43" t="n">
-        <v>522.059084122259</v>
+        <v>480.6879106006893</v>
       </c>
       <c r="U43" t="n">
-        <v>522.059084122259</v>
+        <v>324.579859613196</v>
       </c>
       <c r="V43" t="n">
-        <v>365.9510331347659</v>
+        <v>168.4718086257027</v>
       </c>
       <c r="W43" t="n">
-        <v>209.8429821472727</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="X43" t="n">
-        <v>209.8429821472727</v>
+        <v>12.36375763820947</v>
       </c>
       <c r="Y43" t="n">
-        <v>209.8429821472727</v>
+        <v>12.36375763820947</v>
       </c>
     </row>
     <row r="44">
@@ -7672,25 +7672,25 @@
         <v>618.1878819104728</v>
       </c>
       <c r="R44" t="n">
-        <v>618.1878819104728</v>
+        <v>548.389189324025</v>
       </c>
       <c r="S44" t="n">
-        <v>618.1878819104728</v>
+        <v>548.389189324025</v>
       </c>
       <c r="T44" t="n">
-        <v>618.1878819104728</v>
+        <v>392.2811383365319</v>
       </c>
       <c r="U44" t="n">
-        <v>462.0798309229797</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="V44" t="n">
-        <v>462.0798309229797</v>
+        <v>324.5798596131958</v>
       </c>
       <c r="W44" t="n">
-        <v>462.0798309229797</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="X44" t="n">
-        <v>324.5798596131958</v>
+        <v>168.4718086257026</v>
       </c>
       <c r="Y44" t="n">
         <v>168.4718086257026</v>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>305.9717799354866</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="C45" t="n">
-        <v>305.9717799354866</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="D45" t="n">
-        <v>305.9717799354866</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="E45" t="n">
-        <v>305.9717799354866</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="F45" t="n">
-        <v>305.9717799354866</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="G45" t="n">
-        <v>200.1063949475299</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="H45" t="n">
-        <v>83.55239163320488</v>
+        <v>12.36375763820946</v>
       </c>
       <c r="I45" t="n">
         <v>12.36375763820946</v>
@@ -7739,10 +7739,10 @@
         <v>313.324869171008</v>
       </c>
       <c r="N45" t="n">
-        <v>466.32636994385</v>
+        <v>404.9418311625814</v>
       </c>
       <c r="O45" t="n">
-        <v>597.7110071091596</v>
+        <v>536.3264683278909</v>
       </c>
       <c r="P45" t="n">
         <v>618.1878819104728</v>
@@ -7757,22 +7757,22 @@
         <v>618.1878819104728</v>
       </c>
       <c r="T45" t="n">
-        <v>618.1878819104728</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="U45" t="n">
-        <v>618.1878819104728</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="V45" t="n">
-        <v>618.1878819104728</v>
+        <v>462.0798309229797</v>
       </c>
       <c r="W45" t="n">
-        <v>462.0798309229797</v>
+        <v>305.9717799354866</v>
       </c>
       <c r="X45" t="n">
-        <v>462.0798309229797</v>
+        <v>149.8637289479934</v>
       </c>
       <c r="Y45" t="n">
-        <v>462.0798309229797</v>
+        <v>12.36375763820946</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>522.059084122259</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="C46" t="n">
-        <v>522.059084122259</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="D46" t="n">
-        <v>451.9092060304214</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="E46" t="n">
-        <v>308.8019926847396</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="F46" t="n">
-        <v>168.4718086257026</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="G46" t="n">
-        <v>12.36375763820946</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="H46" t="n">
-        <v>12.36375763820946</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="I46" t="n">
         <v>12.36375763820946</v>
@@ -7830,28 +7830,28 @@
         <v>522.059084122259</v>
       </c>
       <c r="R46" t="n">
-        <v>522.059084122259</v>
+        <v>365.9510331347659</v>
       </c>
       <c r="S46" t="n">
-        <v>522.059084122259</v>
+        <v>209.8429821472727</v>
       </c>
       <c r="T46" t="n">
-        <v>522.059084122259</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="U46" t="n">
-        <v>522.059084122259</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="V46" t="n">
-        <v>522.059084122259</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="W46" t="n">
-        <v>522.059084122259</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="X46" t="n">
-        <v>522.059084122259</v>
+        <v>151.5980326442856</v>
       </c>
       <c r="Y46" t="n">
-        <v>522.059084122259</v>
+        <v>151.5980326442856</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.40829738744617</v>
+        <v>16.40829738744623</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.05933701762353</v>
+        <v>11.05933701762359</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8768,7 +8768,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>32.96233950327772</v>
+        <v>32.96233950327775</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.24164904049897</v>
+        <v>6.241649040498999</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.86909645603961</v>
+        <v>16.40829738744617</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>82.46079906859367</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.86909645603961</v>
+        <v>98.86909645603984</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>82.46079906859356</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>25.39818957296237</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>57.06260949563104</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>11.05933701762353</v>
@@ -23266,13 +23266,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>235.3539404649501</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>349.8115455401185</v>
+        <v>416.8358114762214</v>
       </c>
       <c r="H11" t="n">
         <v>326.5147140356779</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>69.10070566058343</v>
       </c>
       <c r="S11" t="n">
-        <v>27.34121170886974</v>
+        <v>27.34121170886982</v>
       </c>
       <c r="T11" t="n">
-        <v>59.15357351536582</v>
+        <v>213.7005439929841</v>
       </c>
       <c r="U11" t="n">
-        <v>95.44338209611726</v>
+        <v>95.44338209611735</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23326,7 +23326,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>227.7385969408317</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>23.04734347989248</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>17.28060136218144</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>4.276468642310107</v>
       </c>
       <c r="G12" t="n">
         <v>147.6732466283748</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>68.20163556300615</v>
       </c>
       <c r="S12" t="n">
-        <v>17.14381874204602</v>
+        <v>171.6907892196643</v>
       </c>
       <c r="T12" t="n">
-        <v>56.10562917740859</v>
+        <v>210.6525996550269</v>
       </c>
       <c r="U12" t="n">
-        <v>82.61061495043791</v>
+        <v>237.1575854280562</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>86.10195043778401</v>
       </c>
       <c r="W12" t="n">
-        <v>198.7812475433315</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -23418,7 +23418,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>11.91021049435412</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -23430,16 +23430,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>64.33644384285637</v>
+        <v>167.8025844980973</v>
       </c>
       <c r="H13" t="n">
-        <v>3.291697725994226</v>
+        <v>116.8812064172583</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.8419322560154</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>56.73754424870934</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>52.00578558162509</v>
       </c>
       <c r="R13" t="n">
         <v>163.0440533182995</v>
       </c>
       <c r="S13" t="n">
-        <v>219.7850347980102</v>
+        <v>65.238064320392</v>
       </c>
       <c r="T13" t="n">
         <v>219.9238357079964</v>
@@ -23478,7 +23478,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>135.7637366117171</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23509,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>416.8358114762214</v>
+        <v>280.7108398795352</v>
       </c>
       <c r="H14" t="n">
         <v>326.5147140356779</v>
       </c>
       <c r="I14" t="n">
-        <v>163.8137280099909</v>
+        <v>9.266757532372708</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>69.1007056605834</v>
       </c>
       <c r="S14" t="n">
-        <v>181.8881821864881</v>
+        <v>27.34121170886985</v>
       </c>
       <c r="T14" t="n">
         <v>213.7005439929841</v>
       </c>
       <c r="U14" t="n">
-        <v>113.8653809770494</v>
+        <v>249.9903525737356</v>
       </c>
       <c r="V14" t="n">
-        <v>166.3328131315337</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>183.3494933481485</v>
+        <v>183.3494933481487</v>
       </c>
       <c r="X14" t="n">
-        <v>205.2357438170878</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23579,13 +23579,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>23.04734347989236</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>17.28060136218133</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>4.276468642309993</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>147.6732466283748</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>68.20163556300614</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6907892196643</v>
+        <v>17.14381874204614</v>
       </c>
       <c r="T15" t="n">
-        <v>210.6525996550269</v>
+        <v>142.7292636213469</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1575854280562</v>
+        <v>82.61061495043802</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23639,10 +23639,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>62.76594396185226</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>68.83731565640741</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.8025844980973</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.497082840681173</v>
+        <v>8.497082840681315</v>
       </c>
       <c r="S16" t="n">
-        <v>76.28638811566296</v>
+        <v>219.7850347980102</v>
       </c>
       <c r="T16" t="n">
-        <v>65.37686523037809</v>
+        <v>65.37686523037823</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6075647633444</v>
+        <v>284.0358002994435</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.540269900215</v>
+        <v>307.0629744417307</v>
       </c>
       <c r="C17" t="n">
-        <v>195.6585269035605</v>
+        <v>195.6585269035606</v>
       </c>
       <c r="D17" t="n">
-        <v>201.6471880455411</v>
+        <v>183.225189164609</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>216.9319415840179</v>
       </c>
       <c r="F17" t="n">
-        <v>248.6522791623952</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>416.8358114762214</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.1007056605834</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.8881821864881</v>
@@ -23822,7 +23822,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>4.276468642310107</v>
       </c>
       <c r="G18" t="n">
         <v>147.6732466283748</v>
@@ -23861,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>17.14381874204602</v>
+        <v>17.14381874204611</v>
       </c>
       <c r="T18" t="n">
-        <v>56.10562917740859</v>
+        <v>142.7292636213469</v>
       </c>
       <c r="U18" t="n">
-        <v>82.61061495043791</v>
+        <v>237.1575854280562</v>
       </c>
       <c r="V18" t="n">
-        <v>172.7255848817222</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -23879,7 +23879,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>68.83731565640738</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.06995018734978</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23901,7 +23901,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F19" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.8025844980973</v>
@@ -23940,7 +23940,7 @@
         <v>163.0440533182995</v>
       </c>
       <c r="S19" t="n">
-        <v>219.7850347980102</v>
+        <v>65.238064320392</v>
       </c>
       <c r="T19" t="n">
         <v>219.9238357079964</v>
@@ -23949,16 +23949,16 @@
         <v>288.6075647633444</v>
       </c>
       <c r="V19" t="n">
-        <v>245.1090151844499</v>
+        <v>90.56204470683167</v>
       </c>
       <c r="W19" t="n">
-        <v>135.763736611717</v>
+        <v>233.7331570438094</v>
       </c>
       <c r="X19" t="n">
-        <v>180.9619936218885</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.5943023365501</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="20">
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>69.1007056605834</v>
       </c>
       <c r="S20" t="n">
-        <v>27.34121170886968</v>
+        <v>181.8881821864881</v>
       </c>
       <c r="T20" t="n">
-        <v>59.15357351536576</v>
+        <v>77.57557239629801</v>
       </c>
       <c r="U20" t="n">
         <v>95.4433820961172</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8555176730492</v>
+        <v>166.3328131315336</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>183.3494933481485</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.75693554141276</v>
+        <v>22.20352392004736</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>35.52459266811294</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -24059,7 +24059,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>4.276468642309965</v>
       </c>
       <c r="G21" t="n">
         <v>147.6732466283748</v>
@@ -24113,10 +24113,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>62.76594396185223</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.83731565640724</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.6169206649681</v>
+        <v>23.06995018734972</v>
       </c>
       <c r="C22" t="n">
         <v>166.4571809719723</v>
@@ -24135,19 +24135,19 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
-        <v>85.09859116669941</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>13.25561402047893</v>
+        <v>167.8025844980973</v>
       </c>
       <c r="H22" t="n">
         <v>157.8386682036125</v>
       </c>
       <c r="I22" t="n">
-        <v>137.8419322560154</v>
+        <v>96.88447046966152</v>
       </c>
       <c r="J22" t="n">
         <v>56.73754424870933</v>
@@ -24180,16 +24180,16 @@
         <v>219.7850347980102</v>
       </c>
       <c r="T22" t="n">
-        <v>219.9238357079964</v>
+        <v>65.37686523037806</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6075647633444</v>
+        <v>134.060594285726</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>135.763736611717</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>198.7147109517692</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
@@ -24220,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>416.8358114762214</v>
+        <v>241.4632820501572</v>
       </c>
       <c r="H23" t="n">
-        <v>160.4877887011274</v>
+        <v>326.5147140356779</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.8137280099909</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.1007056605834</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.8881821864881</v>
+        <v>6.515652760423933</v>
       </c>
       <c r="T23" t="n">
-        <v>213.7005439929841</v>
+        <v>128.3331257350903</v>
       </c>
       <c r="U23" t="n">
-        <v>249.9903525737356</v>
+        <v>74.61782314767146</v>
       </c>
       <c r="V23" t="n">
-        <v>145.5072541830879</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>166.2738769011635</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>12.1456220983018</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -24299,7 +24299,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.6732466283748</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>115.3884632811818</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>68.20163556300614</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>120.704371093156</v>
+        <v>210.6525996550269</v>
       </c>
       <c r="U24" t="n">
         <v>237.1575854280562</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>65.27639148933812</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>41.94038501340648</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>48.0117567079615</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.244391238903972</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>138.9268822184467</v>
@@ -24387,7 +24387,7 @@
         <v>137.8419322560154</v>
       </c>
       <c r="J25" t="n">
-        <v>56.73754424870933</v>
+        <v>23.31654653199706</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>52.00578558162508</v>
       </c>
       <c r="R25" t="n">
-        <v>163.0440533182995</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>219.7850347980102</v>
@@ -24429,10 +24429,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>68.06614104116184</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.7687433881043</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>248.7311257215362</v>
       </c>
       <c r="G26" t="n">
         <v>416.8358114762214</v>
@@ -24493,19 +24493,19 @@
         <v>69.1007056605834</v>
       </c>
       <c r="S26" t="n">
-        <v>181.8881821864881</v>
+        <v>6.515652760423876</v>
       </c>
       <c r="T26" t="n">
-        <v>38.32801456692002</v>
+        <v>213.7005439929841</v>
       </c>
       <c r="U26" t="n">
-        <v>74.61782314767146</v>
+        <v>74.6178231476714</v>
       </c>
       <c r="V26" t="n">
-        <v>145.5072541830879</v>
+        <v>145.5072541830878</v>
       </c>
       <c r="W26" t="n">
-        <v>183.4283399072896</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.6732466283748</v>
       </c>
       <c r="H27" t="n">
-        <v>88.49953809867905</v>
+        <v>115.3884632811818</v>
       </c>
       <c r="I27" t="n">
         <v>70.47674765504547</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>68.20163556300614</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6907892196643</v>
       </c>
       <c r="T27" t="n">
-        <v>210.6525996550269</v>
+        <v>35.28007022896273</v>
       </c>
       <c r="U27" t="n">
         <v>237.1575854280562</v>
@@ -24590,7 +24590,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.0117567079615</v>
+        <v>117.0237498861541</v>
       </c>
     </row>
     <row r="28">
@@ -24615,13 +24615,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>167.8025844980973</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>14.27695246110045</v>
+        <v>157.8386682036125</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>137.8419322560154</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.00578558162508</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>163.0440533182995</v>
@@ -24669,7 +24669,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.1412728141684</v>
+        <v>155.5459948953633</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>162.3996302161632</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>196.106382635572</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>248.7311257215362</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>416.8358114762214</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.1007056605834</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.8881821864881</v>
+        <v>96.52076392859419</v>
       </c>
       <c r="T29" t="n">
-        <v>213.7005439929841</v>
+        <v>38.32801456691996</v>
       </c>
       <c r="U29" t="n">
-        <v>249.9903525737356</v>
+        <v>74.6178231476714</v>
       </c>
       <c r="V29" t="n">
-        <v>145.5072541830879</v>
+        <v>145.5072541830878</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24761,25 +24761,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>160.9781022985133</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>115.3884632811818</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>70.47674765504547</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24818,10 +24818,10 @@
         <v>237.1575854280562</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>65.27639148933807</v>
       </c>
       <c r="W30" t="n">
-        <v>250.308339904672</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.244391238903972</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -24846,7 +24846,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -24855,7 +24855,7 @@
         <v>167.8025844980973</v>
       </c>
       <c r="H31" t="n">
-        <v>145.6614950487567</v>
+        <v>157.8386682036125</v>
       </c>
       <c r="I31" t="n">
         <v>137.8419322560154</v>
@@ -24888,10 +24888,10 @@
         <v>163.0440533182995</v>
       </c>
       <c r="S31" t="n">
-        <v>219.7850347980102</v>
+        <v>65.93172043092949</v>
       </c>
       <c r="T31" t="n">
-        <v>219.9238357079964</v>
+        <v>44.55130628193226</v>
       </c>
       <c r="U31" t="n">
         <v>288.6075647633444</v>
@@ -24903,7 +24903,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>46.54692598217841</v>
+        <v>46.54692598217835</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>198.7147109517692</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
@@ -24925,7 +24925,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>217.0107881431589</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.1007056605834</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>181.8881821864881</v>
       </c>
       <c r="T32" t="n">
-        <v>38.32801456692002</v>
+        <v>213.7005439929841</v>
       </c>
       <c r="U32" t="n">
         <v>249.9903525737356</v>
@@ -24979,13 +24979,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>162.5239343997028</v>
+        <v>162.5239343997027</v>
       </c>
       <c r="X32" t="n">
-        <v>184.410184868642</v>
+        <v>274.4152960368124</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>206.9130379923857</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>1.377964971601585</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -25016,7 +25016,7 @@
         <v>115.3884632811818</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>70.47674765504547</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>68.20163556300614</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>35.28007022896278</v>
+        <v>35.28007022896276</v>
       </c>
       <c r="U33" t="n">
-        <v>217.6861045212308</v>
+        <v>237.1575854280562</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>82.49905679052523</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>41.94038501340648</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -25077,19 +25077,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>88.98988496027053</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.8025844980973</v>
       </c>
       <c r="H34" t="n">
         <v>157.8386682036125</v>
@@ -25128,10 +25128,10 @@
         <v>219.7850347980102</v>
       </c>
       <c r="T34" t="n">
-        <v>219.9238357079964</v>
+        <v>57.15517288682381</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6075647633444</v>
+        <v>113.2350353372802</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25165,13 +25165,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>248.6522791623953</v>
       </c>
       <c r="G35" t="n">
-        <v>416.8358114762214</v>
+        <v>262.2888409986032</v>
       </c>
       <c r="H35" t="n">
-        <v>326.5147140356779</v>
+        <v>190.3897424389918</v>
       </c>
       <c r="I35" t="n">
         <v>163.8137280099909</v>
@@ -25204,19 +25204,19 @@
         <v>69.1007056605834</v>
       </c>
       <c r="S35" t="n">
-        <v>45.76321058980204</v>
+        <v>27.34121170886985</v>
       </c>
       <c r="T35" t="n">
-        <v>59.15357351536593</v>
+        <v>213.7005439929841</v>
       </c>
       <c r="U35" t="n">
-        <v>95.44338209611738</v>
+        <v>249.9903525737356</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>183.3494933481487</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
@@ -25235,7 +25235,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>51.39317992767982</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -25244,7 +25244,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>4.276468642310135</v>
       </c>
       <c r="G36" t="n">
         <v>147.6732466283748</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>68.20163556300614</v>
       </c>
       <c r="S36" t="n">
         <v>17.14381874204614</v>
       </c>
       <c r="T36" t="n">
-        <v>56.1056291774087</v>
+        <v>210.6525996550269</v>
       </c>
       <c r="U36" t="n">
         <v>82.61061495043802</v>
       </c>
       <c r="V36" t="n">
-        <v>172.7255848817223</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -25326,7 +25326,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8025844980973</v>
+        <v>13.2556140204791</v>
       </c>
       <c r="H37" t="n">
         <v>157.8386682036125</v>
@@ -25368,7 +25368,7 @@
         <v>219.9238357079964</v>
       </c>
       <c r="U37" t="n">
-        <v>134.0605942857262</v>
+        <v>288.6075647633444</v>
       </c>
       <c r="V37" t="n">
         <v>90.5620447068317</v>
@@ -25377,10 +25377,10 @@
         <v>135.7637366117171</v>
       </c>
       <c r="X37" t="n">
-        <v>180.9619936218881</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>176.183811027814</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.5402699002151</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25399,10 +25399,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>216.9319415840179</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>248.6522791623953</v>
       </c>
       <c r="G38" t="n">
         <v>416.8358114762214</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.8881821864881</v>
+        <v>114.8639162503854</v>
       </c>
       <c r="T38" t="n">
         <v>213.7005439929841</v>
       </c>
       <c r="U38" t="n">
-        <v>95.44338209611738</v>
+        <v>249.9903525737356</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>270.8721978896642</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>205.2357438170879</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>227.7385969408317</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>32.97118104674772</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25481,13 +25481,13 @@
         <v>17.28060136218147</v>
       </c>
       <c r="F39" t="n">
-        <v>4.276468642310135</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>11.54827503168866</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>115.3884632811818</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>70.47674765504547</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>68.20163556300614</v>
+        <v>40.59140339825835</v>
       </c>
       <c r="S39" t="n">
         <v>171.6907892196643</v>
@@ -25538,7 +25538,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>68.83731565640741</v>
       </c>
     </row>
     <row r="40">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>136.6594588786136</v>
+        <v>23.06995018734989</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>11.91021049435415</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>100.7186794258706</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -25611,10 +25611,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>135.7637366117171</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>67.37248493062432</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>62.59430233655021</v>
@@ -25633,16 +25633,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>201.6471880455413</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>216.9319415840179</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>248.6522791623953</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>262.2888409986032</v>
+        <v>416.8358114762214</v>
       </c>
       <c r="H41" t="n">
         <v>326.5147140356779</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.1007056605834</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>181.8881821864881</v>
       </c>
       <c r="T41" t="n">
-        <v>213.7005439929841</v>
+        <v>146.6762780568814</v>
       </c>
       <c r="U41" t="n">
-        <v>249.9903525737356</v>
+        <v>95.44338209611726</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>166.3328131315337</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>183.3494933481486</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25709,13 +25709,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>32.9711810467476</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>35.70260024311358</v>
+        <v>17.28060136218136</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -25724,7 +25724,7 @@
         <v>147.6732466283748</v>
       </c>
       <c r="H42" t="n">
-        <v>115.3884632811818</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>70.47674765504547</v>
@@ -25763,13 +25763,13 @@
         <v>210.6525996550269</v>
       </c>
       <c r="U42" t="n">
-        <v>82.61061495043802</v>
+        <v>82.61061495043791</v>
       </c>
       <c r="V42" t="n">
-        <v>86.10195043778404</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>112.1576130993934</v>
+        <v>245.9680752615072</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -25797,10 +25797,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>97.96942043209222</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>13.2556140204791</v>
+        <v>167.8025844980973</v>
       </c>
       <c r="H43" t="n">
         <v>157.8386682036125</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.00578558162508</v>
+        <v>11.04832379527103</v>
       </c>
       <c r="R43" t="n">
         <v>163.0440533182995</v>
@@ -25842,13 +25842,13 @@
         <v>219.9238357079964</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6075647633444</v>
+        <v>134.0605942857261</v>
       </c>
       <c r="V43" t="n">
-        <v>90.5620447068317</v>
+        <v>90.56204470683159</v>
       </c>
       <c r="W43" t="n">
-        <v>135.7637366117171</v>
+        <v>135.763736611717</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.1007056605834</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.8881821864881</v>
       </c>
       <c r="T44" t="n">
-        <v>213.7005439929841</v>
+        <v>59.15357351536593</v>
       </c>
       <c r="U44" t="n">
-        <v>95.44338209611738</v>
+        <v>182.9660866376329</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>183.3494933481487</v>
       </c>
       <c r="X44" t="n">
-        <v>223.6577426980201</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.7385969408317</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>22.20352392004753</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -25958,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>42.86651549029769</v>
+        <v>147.6732466283748</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>115.3884632811818</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>70.47674765504547</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>171.6907892196643</v>
       </c>
       <c r="T45" t="n">
-        <v>210.6525996550269</v>
+        <v>56.1056291774087</v>
       </c>
       <c r="U45" t="n">
         <v>237.1575854280562</v>
@@ -26009,10 +26009,10 @@
         <v>112.1576130993934</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>62.7659439618524</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>87.25931453733952</v>
       </c>
     </row>
     <row r="46">
@@ -26028,22 +26028,22 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>75.7342709397915</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>13.2556140204791</v>
+        <v>167.8025844980973</v>
       </c>
       <c r="H46" t="n">
         <v>157.8386682036125</v>
       </c>
       <c r="I46" t="n">
-        <v>137.8419322560154</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>56.73754424870933</v>
@@ -26070,13 +26070,13 @@
         <v>52.00578558162508</v>
       </c>
       <c r="R46" t="n">
-        <v>163.0440533182995</v>
+        <v>8.497082840681315</v>
       </c>
       <c r="S46" t="n">
-        <v>219.7850347980102</v>
+        <v>65.23806432039203</v>
       </c>
       <c r="T46" t="n">
-        <v>219.9238357079964</v>
+        <v>162.2613357000392</v>
       </c>
       <c r="U46" t="n">
         <v>288.6075647633444</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>389368.0465832786</v>
+        <v>389368.0465832788</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>389368.0465832788</v>
+        <v>389368.0465832786</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>389368.0465832787</v>
+        <v>389368.0465832789</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>402591.6990459315</v>
+        <v>402591.6990459316</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>402591.6990459316</v>
+        <v>402591.6990459317</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>402591.6990459315</v>
+        <v>402591.6990459317</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>402591.6990459316</v>
+        <v>402591.6990459317</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>389368.0465832787</v>
+        <v>389368.0465832786</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>389368.0465832787</v>
+        <v>389368.0465832786</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>389368.0465832786</v>
+        <v>389368.0465832787</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683497.2962617563</v>
+        <v>683497.2962617561</v>
       </c>
       <c r="C2" t="n">
         <v>683497.2962617562</v>
       </c>
       <c r="D2" t="n">
-        <v>683497.2962617562</v>
+        <v>683497.2962617561</v>
       </c>
       <c r="E2" t="n">
+        <v>298753.0960225148</v>
+      </c>
+      <c r="F2" t="n">
         <v>298753.0960225149</v>
-      </c>
-      <c r="F2" t="n">
-        <v>298753.096022515</v>
       </c>
       <c r="G2" t="n">
         <v>298753.0960225148</v>
       </c>
       <c r="H2" t="n">
-        <v>298753.0960225148</v>
+        <v>298753.0960225147</v>
       </c>
       <c r="I2" t="n">
-        <v>306394.6108702669</v>
+        <v>306394.610870267</v>
       </c>
       <c r="J2" t="n">
         <v>306394.6108702669</v>
@@ -26343,13 +26343,13 @@
         <v>306394.610870267</v>
       </c>
       <c r="L2" t="n">
-        <v>306394.6108702669</v>
+        <v>306394.610870267</v>
       </c>
       <c r="M2" t="n">
-        <v>298753.0960225147</v>
+        <v>298753.0960225148</v>
       </c>
       <c r="N2" t="n">
-        <v>298753.0960225148</v>
+        <v>298753.0960225149</v>
       </c>
       <c r="O2" t="n">
         <v>298753.0960225149</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>527590.6461203684</v>
+        <v>527590.6461203683</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5537.953461129641</v>
+        <v>5537.953461129639</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>33323.9106387159</v>
+        <v>33323.91063871586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>498984.6759847553</v>
       </c>
       <c r="C4" t="n">
-        <v>498984.6759847553</v>
+        <v>498984.6759847554</v>
       </c>
       <c r="D4" t="n">
         <v>498984.6759847553</v>
       </c>
       <c r="E4" t="n">
-        <v>13647.8974406278</v>
+        <v>13647.89744062781</v>
       </c>
       <c r="F4" t="n">
         <v>13647.8974406278</v>
       </c>
       <c r="G4" t="n">
-        <v>13647.89744062781</v>
+        <v>13647.8974406278</v>
       </c>
       <c r="H4" t="n">
         <v>13647.8974406278</v>
@@ -26441,19 +26441,19 @@
         <v>17273.12155008038</v>
       </c>
       <c r="J4" t="n">
+        <v>17273.12155008039</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17273.12155008039</v>
+      </c>
+      <c r="L4" t="n">
         <v>17273.12155008038</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17273.12155008038</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17273.12155008037</v>
       </c>
       <c r="M4" t="n">
         <v>13647.8974406278</v>
       </c>
       <c r="N4" t="n">
-        <v>13647.89744062781</v>
+        <v>13647.8974406278</v>
       </c>
       <c r="O4" t="n">
         <v>13647.8974406278</v>
@@ -26481,7 +26481,7 @@
         <v>22460.29772841566</v>
       </c>
       <c r="F5" t="n">
-        <v>22460.29772841567</v>
+        <v>22460.29772841566</v>
       </c>
       <c r="G5" t="n">
         <v>22460.29772841566</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150885.020277001</v>
+        <v>150840.3564349489</v>
       </c>
       <c r="C6" t="n">
-        <v>150885.0202770009</v>
+        <v>150840.3564349489</v>
       </c>
       <c r="D6" t="n">
-        <v>150885.0202770009</v>
+        <v>150840.3564349489</v>
       </c>
       <c r="E6" t="n">
-        <v>-264945.7452668969</v>
+        <v>-277401.5123424727</v>
       </c>
       <c r="F6" t="n">
-        <v>262644.9008534715</v>
+        <v>250189.1337778957</v>
       </c>
       <c r="G6" t="n">
-        <v>262644.9008534714</v>
+        <v>250189.1337778955</v>
       </c>
       <c r="H6" t="n">
-        <v>262644.9008534714</v>
+        <v>250189.1337778954</v>
       </c>
       <c r="I6" t="n">
-        <v>259857.0441465757</v>
+        <v>247647.7775499597</v>
       </c>
       <c r="J6" t="n">
-        <v>265394.9976077054</v>
+        <v>253185.7310110892</v>
       </c>
       <c r="K6" t="n">
-        <v>265394.9976077054</v>
+        <v>253185.7310110893</v>
       </c>
       <c r="L6" t="n">
-        <v>265394.9976077053</v>
+        <v>253185.7310110893</v>
       </c>
       <c r="M6" t="n">
-        <v>229320.9902147554</v>
+        <v>216865.2231391797</v>
       </c>
       <c r="N6" t="n">
-        <v>262644.9008534714</v>
+        <v>250189.1337778957</v>
       </c>
       <c r="O6" t="n">
-        <v>262644.9008534714</v>
+        <v>250189.1337778956</v>
       </c>
       <c r="P6" t="n">
-        <v>262644.9008534715</v>
+        <v>250189.1337778957</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.2588038246087</v>
+        <v>599.2588038246085</v>
       </c>
       <c r="F3" t="n">
         <v>599.2588038246087</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="F4" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="G4" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="H4" t="n">
         <v>154.5469704776184</v>
@@ -26813,10 +26813,10 @@
         <v>175.3725294260641</v>
       </c>
       <c r="J4" t="n">
-        <v>175.3725294260641</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="K4" t="n">
-        <v>175.3725294260641</v>
+        <v>175.3725294260642</v>
       </c>
       <c r="L4" t="n">
         <v>175.3725294260641</v>
@@ -26828,7 +26828,7 @@
         <v>154.5469704776182</v>
       </c>
       <c r="O4" t="n">
-        <v>154.5469704776182</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="P4" t="n">
         <v>154.5469704776182</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.2588038246087</v>
+        <v>599.2588038246085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.82555894844575</v>
+        <v>20.82555894844574</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>133.7214115291725</v>
+        <v>133.7214115291723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5469704776183</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.409080618390385</v>
+        <v>2.409080618390384</v>
       </c>
       <c r="H11" t="n">
-        <v>24.67199688309054</v>
+        <v>24.67199688309053</v>
       </c>
       <c r="I11" t="n">
-        <v>92.87608054049539</v>
+        <v>92.87608054049538</v>
       </c>
       <c r="J11" t="n">
         <v>204.4677061351111</v>
       </c>
       <c r="K11" t="n">
-        <v>306.4440887115762</v>
+        <v>306.4440887115761</v>
       </c>
       <c r="L11" t="n">
-        <v>380.170989686641</v>
+        <v>380.1709896866409</v>
       </c>
       <c r="M11" t="n">
-        <v>423.013477133941</v>
+        <v>423.0134771339409</v>
       </c>
       <c r="N11" t="n">
-        <v>429.8582774409427</v>
+        <v>429.8582774409426</v>
       </c>
       <c r="O11" t="n">
         <v>405.9029820418232</v>
       </c>
       <c r="P11" t="n">
-        <v>346.4288042753106</v>
+        <v>346.4288042753105</v>
       </c>
       <c r="Q11" t="n">
         <v>260.1536046292048</v>
       </c>
       <c r="R11" t="n">
-        <v>151.3294103949652</v>
+        <v>151.3294103949651</v>
       </c>
       <c r="S11" t="n">
-        <v>54.89692459157095</v>
+        <v>54.89692459157094</v>
       </c>
       <c r="T11" t="n">
         <v>10.54575040700391</v>
@@ -31834,28 +31834,28 @@
         <v>1.288971766717083</v>
       </c>
       <c r="H12" t="n">
-        <v>12.44875364171499</v>
+        <v>12.44875364171498</v>
       </c>
       <c r="I12" t="n">
-        <v>44.3790717926715</v>
+        <v>44.37907179267149</v>
       </c>
       <c r="J12" t="n">
         <v>121.7795650300556</v>
       </c>
       <c r="K12" t="n">
-        <v>208.1406734001002</v>
+        <v>208.1406734001001</v>
       </c>
       <c r="L12" t="n">
         <v>279.8708215409175</v>
       </c>
       <c r="M12" t="n">
-        <v>326.5960480844117</v>
+        <v>264.5914634568678</v>
       </c>
       <c r="N12" t="n">
-        <v>252.7792745917412</v>
+        <v>314.7838592192849</v>
       </c>
       <c r="O12" t="n">
-        <v>306.6791729346561</v>
+        <v>306.679172934656</v>
       </c>
       <c r="P12" t="n">
         <v>246.1370735935454</v>
@@ -31864,16 +31864,16 @@
         <v>164.5361153444473</v>
       </c>
       <c r="R12" t="n">
-        <v>80.029317235294</v>
+        <v>80.02931723529399</v>
       </c>
       <c r="S12" t="n">
         <v>23.94208522827562</v>
       </c>
       <c r="T12" t="n">
-        <v>5.19546076146052</v>
+        <v>5.195460761460519</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0848007741261239</v>
+        <v>0.08480077412612388</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,16 +31913,16 @@
         <v>1.080630629847655</v>
       </c>
       <c r="H13" t="n">
-        <v>9.607788690827338</v>
+        <v>9.607788690827336</v>
       </c>
       <c r="I13" t="n">
         <v>32.49751021396403</v>
       </c>
       <c r="J13" t="n">
-        <v>76.40058553022919</v>
+        <v>76.40058553022918</v>
       </c>
       <c r="K13" t="n">
-        <v>125.5496313586639</v>
+        <v>125.5496313586638</v>
       </c>
       <c r="L13" t="n">
         <v>160.6603029138959</v>
@@ -31934,25 +31934,25 @@
         <v>165.3659581111417</v>
       </c>
       <c r="O13" t="n">
-        <v>152.7422275715577</v>
+        <v>152.7422275715576</v>
       </c>
       <c r="P13" t="n">
         <v>130.6973627226654</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.4880793775159</v>
+        <v>90.48807937751589</v>
       </c>
       <c r="R13" t="n">
-        <v>48.58908268387727</v>
+        <v>48.58908268387726</v>
       </c>
       <c r="S13" t="n">
-        <v>18.83244470379958</v>
+        <v>18.83244470379957</v>
       </c>
       <c r="T13" t="n">
-        <v>4.617239963894524</v>
+        <v>4.617239963894523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05894348890078124</v>
+        <v>0.05894348890078123</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,13 +32089,13 @@
         <v>326.5960480844117</v>
       </c>
       <c r="N15" t="n">
-        <v>252.7792745917413</v>
+        <v>314.7838592192849</v>
       </c>
       <c r="O15" t="n">
         <v>306.6791729346561</v>
       </c>
       <c r="P15" t="n">
-        <v>246.1370735935454</v>
+        <v>184.1324889660013</v>
       </c>
       <c r="Q15" t="n">
         <v>164.5361153444473</v>
@@ -32323,10 +32323,10 @@
         <v>279.8708215409175</v>
       </c>
       <c r="M18" t="n">
-        <v>264.5914634568679</v>
+        <v>326.5960480844117</v>
       </c>
       <c r="N18" t="n">
-        <v>314.783859219285</v>
+        <v>252.7792745917409</v>
       </c>
       <c r="O18" t="n">
         <v>306.6791729346561</v>
@@ -32800,7 +32800,7 @@
         <v>326.5960480844117</v>
       </c>
       <c r="N24" t="n">
-        <v>335.2400736603348</v>
+        <v>335.2400736603346</v>
       </c>
       <c r="O24" t="n">
         <v>306.6791729346561</v>
@@ -33748,10 +33748,10 @@
         <v>326.5960480844117</v>
       </c>
       <c r="N36" t="n">
-        <v>252.7792745917408</v>
+        <v>314.7838592192849</v>
       </c>
       <c r="O36" t="n">
-        <v>306.6791729346561</v>
+        <v>244.674588307112</v>
       </c>
       <c r="P36" t="n">
         <v>246.1370735935454</v>
@@ -34213,16 +34213,16 @@
         <v>121.7795650300556</v>
       </c>
       <c r="K42" t="n">
-        <v>208.1406734001002</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L42" t="n">
         <v>279.8708215409175</v>
       </c>
       <c r="M42" t="n">
-        <v>326.5960480844117</v>
+        <v>304.5655813082502</v>
       </c>
       <c r="N42" t="n">
-        <v>252.7792745917408</v>
+        <v>314.783859219285</v>
       </c>
       <c r="O42" t="n">
         <v>306.6791729346561</v>
@@ -34459,13 +34459,13 @@
         <v>326.5960480844117</v>
       </c>
       <c r="N45" t="n">
-        <v>314.7838592192849</v>
+        <v>252.7792745917408</v>
       </c>
       <c r="O45" t="n">
         <v>306.6791729346561</v>
       </c>
       <c r="P45" t="n">
-        <v>184.1324889660013</v>
+        <v>246.1370735935454</v>
       </c>
       <c r="Q45" t="n">
         <v>164.5361153444473</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.93447043669988</v>
+        <v>37.93447043669983</v>
       </c>
       <c r="L11" t="n">
-        <v>92.53596342325653</v>
+        <v>92.53596342325648</v>
       </c>
       <c r="M11" t="n">
-        <v>141.9910725966682</v>
+        <v>141.9910725966681</v>
       </c>
       <c r="N11" t="n">
-        <v>149.9743398531018</v>
+        <v>149.9743398531016</v>
       </c>
       <c r="O11" t="n">
         <v>125.1831641073654</v>
       </c>
       <c r="P11" t="n">
-        <v>64.32454945388173</v>
+        <v>64.32454945388167</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.97411785138223</v>
+        <v>39.97411785138218</v>
       </c>
       <c r="L12" t="n">
-        <v>110.834478209471</v>
+        <v>110.8344782094709</v>
       </c>
       <c r="M12" t="n">
-        <v>153.1925266995493</v>
+        <v>91.18794207200546</v>
       </c>
       <c r="N12" t="n">
-        <v>92.54238585007457</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="O12" t="n">
-        <v>132.7117547124339</v>
+        <v>132.7117547124338</v>
       </c>
       <c r="P12" t="n">
-        <v>82.68829654806251</v>
+        <v>82.68829654806248</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>37.32341698194557</v>
+        <v>37.32341698194554</v>
       </c>
       <c r="L13" t="n">
-        <v>101.3846044497125</v>
+        <v>101.3846044497124</v>
       </c>
       <c r="M13" t="n">
         <v>115.5785670392709</v>
       </c>
       <c r="N13" t="n">
-        <v>120.9274743787685</v>
+        <v>120.9274743787684</v>
       </c>
       <c r="O13" t="n">
-        <v>89.47625046540132</v>
+        <v>89.47625046540129</v>
       </c>
       <c r="P13" t="n">
-        <v>50.15345081020396</v>
+        <v>50.15345081020394</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>153.1925266995493</v>
       </c>
       <c r="N15" t="n">
-        <v>92.54238585007468</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="O15" t="n">
         <v>132.7117547124339</v>
       </c>
       <c r="P15" t="n">
-        <v>82.68829654806251</v>
+        <v>20.6837119205184</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>110.834478209471</v>
       </c>
       <c r="M18" t="n">
-        <v>91.1879420720056</v>
+        <v>153.1925266995493</v>
       </c>
       <c r="N18" t="n">
-        <v>154.5469704776183</v>
+        <v>92.54238585007423</v>
       </c>
       <c r="O18" t="n">
         <v>132.7117547124339</v>
@@ -36138,7 +36138,7 @@
         <v>125.1831641073654</v>
       </c>
       <c r="P20" t="n">
-        <v>64.32454945388173</v>
+        <v>64.32454945388197</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>153.1925266995493</v>
       </c>
       <c r="N24" t="n">
-        <v>175.0031849186681</v>
+        <v>175.003184918668</v>
       </c>
       <c r="O24" t="n">
         <v>132.7117547124339</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>82.46079906859345</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>37.93447043669988</v>
       </c>
       <c r="L26" t="n">
-        <v>92.53596342325653</v>
+        <v>174.9967624918502</v>
       </c>
       <c r="M26" t="n">
         <v>141.9910725966682</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>82.46079906859345</v>
+        <v>82.46079906859367</v>
       </c>
       <c r="K29" t="n">
         <v>37.93447043669988</v>
@@ -37074,19 +37074,19 @@
         <v>37.93447043669988</v>
       </c>
       <c r="L32" t="n">
-        <v>92.53596342325653</v>
+        <v>174.9967624918501</v>
       </c>
       <c r="M32" t="n">
         <v>141.9910725966682</v>
       </c>
       <c r="N32" t="n">
-        <v>175.3725294260641</v>
+        <v>149.9743398531018</v>
       </c>
       <c r="O32" t="n">
         <v>125.1831641073654</v>
       </c>
       <c r="P32" t="n">
-        <v>121.3871589495128</v>
+        <v>64.32454945388173</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>153.1925266995493</v>
       </c>
       <c r="N36" t="n">
-        <v>92.5423858500741</v>
+        <v>154.5469704776182</v>
       </c>
       <c r="O36" t="n">
-        <v>132.7117547124339</v>
+        <v>70.70717008488978</v>
       </c>
       <c r="P36" t="n">
         <v>82.68829654806251</v>
@@ -37557,7 +37557,7 @@
         <v>149.9743398531018</v>
       </c>
       <c r="O38" t="n">
-        <v>125.183164107365</v>
+        <v>125.1831641073654</v>
       </c>
       <c r="P38" t="n">
         <v>64.32454945388173</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.97411785138223</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>110.834478209471</v>
       </c>
       <c r="M42" t="n">
-        <v>153.1925266995493</v>
+        <v>131.1620599233878</v>
       </c>
       <c r="N42" t="n">
-        <v>92.5423858500741</v>
+        <v>154.5469704776183</v>
       </c>
       <c r="O42" t="n">
         <v>132.7117547124339</v>
@@ -38107,13 +38107,13 @@
         <v>153.1925266995493</v>
       </c>
       <c r="N45" t="n">
-        <v>154.5469704776182</v>
+        <v>92.5423858500741</v>
       </c>
       <c r="O45" t="n">
         <v>132.7117547124339</v>
       </c>
       <c r="P45" t="n">
-        <v>20.6837119205184</v>
+        <v>82.68829654806251</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
